--- a/Isotope_africa/Metadata_Africa.xlsx
+++ b/Isotope_africa/Metadata_Africa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K180"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,46 +600,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Algeria (Algiers-Univ.)</t>
+          <t>Algeria (various sites)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ASSEKREM</t>
+          <t>BENI-ABBES</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23.27</v>
+        <v>30.13</v>
       </c>
       <c r="E4" t="n">
-        <v>5.6</v>
+        <v>-2.17</v>
       </c>
       <c r="F4" t="n">
-        <v>2726</v>
+        <v>498</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>H2</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>1992-05-15T00:00:00.0000000+02:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2005-10-18T00:00:00.0000000+02:00</t>
-        </is>
-      </c>
+          <t>O18</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1965-09-15T00:00:00.0000000+02:00</t>
+          <t>1966-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2005-10-18T00:00:00.0000000+02:00</t>
+          <t>1968-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -651,22 +643,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tunisia (various sites)</t>
+          <t>Algeria (Algiers-Univ.)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TUNIS (CARTHAGE)</t>
+          <t>ASSEKREM</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36.83</v>
+        <v>23.27</v>
       </c>
       <c r="E5" t="n">
-        <v>10.23</v>
+        <v>5.6</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>2726</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -675,22 +667,22 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1968-04-15T00:00:00.0000000+02:00</t>
+          <t>1992-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2004-12-15T00:00:00.0000000+01:00</t>
+          <t>2005-10-18T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1968-04-15T00:00:00.0000000+02:00</t>
+          <t>1965-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2004-12-15T00:00:00.0000000+01:00</t>
+          <t>2005-10-18T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -707,17 +699,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NEFTA</t>
+          <t>TUNIS (CARTHAGE)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>33.88</v>
+        <v>36.83</v>
       </c>
       <c r="E6" t="n">
-        <v>7.86</v>
+        <v>10.23</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -726,22 +718,22 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1999-01-15T00:00:00.0000000+01:00</t>
+          <t>1968-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2003-12-15T00:00:00.0000000+01:00</t>
+          <t>2004-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1999-01-15T00:00:00.0000000+01:00</t>
+          <t>1968-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2003-12-15T00:00:00.0000000+01:00</t>
+          <t>2004-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -753,22 +745,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Niger (Niamey)</t>
+          <t>Tunisia (various sites)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NIAMEY (ORSTOM)</t>
+          <t>NEFTA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13.52</v>
+        <v>33.88</v>
       </c>
       <c r="E7" t="n">
-        <v>2.09</v>
+        <v>7.86</v>
       </c>
       <c r="F7" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -777,22 +769,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1992-06-15T00:00:00.0000000+02:00</t>
+          <t>1999-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1997-10-15T00:00:00.0000000+02:00</t>
+          <t>2003-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1992-06-15T00:00:00.0000000+02:00</t>
+          <t>1999-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1996-08-15T00:00:00.0000000+02:00</t>
+          <t>2003-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -804,22 +796,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>worldwide/closed/noContact</t>
+          <t>Niger (Niamey)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BAMAKO</t>
+          <t>NIAMEY (ORSTOM)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.69325</v>
+        <v>13.52</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.99549444444444</v>
+        <v>2.09</v>
       </c>
       <c r="F8" t="n">
-        <v>381</v>
+        <v>220</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -828,22 +820,22 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1962-05-15T00:00:00.0000000+02:00</t>
+          <t>1992-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2018-09-15T00:00:00.0000000+02:00</t>
+          <t>1997-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1962-05-15T00:00:00.0000000+02:00</t>
+          <t>1992-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2018-09-15T00:00:00.0000000+02:00</t>
+          <t>1996-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -855,22 +847,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ascension Island</t>
+          <t>worldwide/closed/noContact</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ASCENSION ISLAND (ATLANTIC O.)</t>
+          <t>BAMAKO</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-7.92</v>
+        <v>12.69325</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.42</v>
+        <v>-7.99549444444444</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>381</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -879,22 +871,22 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1961-12-15T00:00:00.0000000+01:00</t>
+          <t>1962-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2018-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1961-12-15T00:00:00.0000000+01:00</t>
+          <t>1962-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2018-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -906,22 +898,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>worldwide/closed/noContact</t>
+          <t>Ascension Island</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SAO TOME (ATLANTIC O.)</t>
+          <t>ASCENSION ISLAND (ATLANTIC O.)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.38</v>
+        <v>-7.92</v>
       </c>
       <c r="E10" t="n">
-        <v>6.72</v>
+        <v>-14.42</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -930,22 +922,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1962-01-15T00:00:00.0000000+01:00</t>
+          <t>1961-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1976-12-15T00:00:00.0000000+01:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1962-01-15T00:00:00.0000000+01:00</t>
+          <t>1961-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1976-12-15T00:00:00.0000000+01:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -962,17 +954,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>KHARTOUM</t>
+          <t>SAO TOME (ATLANTIC O.)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15.6</v>
+        <v>0.38</v>
       </c>
       <c r="E11" t="n">
-        <v>32.55</v>
+        <v>6.72</v>
       </c>
       <c r="F11" t="n">
-        <v>382</v>
+        <v>8</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -981,22 +973,22 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1962-06-15T00:00:00.0000000+02:00</t>
+          <t>1962-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1978-08-15T00:00:00.0000000+02:00</t>
+          <t>1976-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1962-06-15T00:00:00.0000000+02:00</t>
+          <t>1962-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1978-08-15T00:00:00.0000000+02:00</t>
+          <t>1976-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1005,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GENEINA</t>
+          <t>KHARTOUM</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13.48</v>
+        <v>15.6</v>
       </c>
       <c r="E12" t="n">
-        <v>22.45</v>
+        <v>32.55</v>
       </c>
       <c r="F12" t="n">
-        <v>805</v>
+        <v>382</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1032,22 +1024,22 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1968-06-15T00:00:00.0000000+02:00</t>
+          <t>1962-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1976-09-15T00:00:00.0000000+02:00</t>
+          <t>1978-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1968-06-15T00:00:00.0000000+02:00</t>
+          <t>1962-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1976-09-15T00:00:00.0000000+02:00</t>
+          <t>1978-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1059,22 +1051,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ethiopia (Addis Ababa)</t>
+          <t>worldwide/closed/noContact</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ADDIS ABABA</t>
+          <t>GENEINA</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>13.48</v>
       </c>
       <c r="E13" t="n">
-        <v>38.73</v>
+        <v>22.45</v>
       </c>
       <c r="F13" t="n">
-        <v>2360</v>
+        <v>805</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1083,22 +1075,22 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1961-03-15T00:00:00.0000000+01:00</t>
+          <t>1968-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2021-10-15T00:00:00.0000000+02:00</t>
+          <t>1976-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1961-03-15T00:00:00.0000000+01:00</t>
+          <t>1968-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2021-10-15T00:00:00.0000000+02:00</t>
+          <t>1976-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1110,22 +1102,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ethiopia (Rift Valley)</t>
+          <t>Ethiopia (Addis Ababa)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BUTAJIRA</t>
+          <t>ADDIS ABABA</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8.116666666666671</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>38.375</v>
+        <v>38.73</v>
       </c>
       <c r="F14" t="n">
-        <v>2040</v>
+        <v>2360</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1134,22 +1126,22 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1995-07-15T00:00:00.0000000+02:00</t>
+          <t>1961-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1995-08-15T00:00:00.0000000+02:00</t>
+          <t>2021-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1995-07-15T00:00:00.0000000+02:00</t>
+          <t>1961-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1995-08-15T00:00:00.0000000+02:00</t>
+          <t>2021-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1166,17 +1158,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ADDIS ABABA (WEST)</t>
+          <t>BUTAJIRA</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8.970000000000001</v>
+        <v>8.116666666666671</v>
       </c>
       <c r="E15" t="n">
-        <v>38.57</v>
+        <v>38.375</v>
       </c>
       <c r="F15" t="n">
-        <v>2300</v>
+        <v>2040</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1185,22 +1177,22 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1994-08-15T00:00:00.0000000+02:00</t>
+          <t>1995-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1994-09-15T00:00:00.0000000+02:00</t>
+          <t>1995-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1994-08-15T00:00:00.0000000+02:00</t>
+          <t>1995-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1994-09-15T00:00:00.0000000+02:00</t>
+          <t>1995-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1209,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SILTE</t>
+          <t>ADDIS ABABA (WEST)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7.95416666666667</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>38.2972222222222</v>
+        <v>38.57</v>
       </c>
       <c r="F16" t="n">
-        <v>2040</v>
+        <v>2300</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1236,22 +1228,22 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1995-07-15T00:00:00.0000000+02:00</t>
+          <t>1994-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1995-08-15T00:00:00.0000000+02:00</t>
+          <t>1994-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1995-07-15T00:00:00.0000000+02:00</t>
+          <t>1994-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1995-08-15T00:00:00.0000000+02:00</t>
+          <t>1994-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1268,17 +1260,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AWASSA</t>
+          <t>SILTE</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7.08</v>
+        <v>7.95416666666667</v>
       </c>
       <c r="E17" t="n">
-        <v>38.48</v>
+        <v>38.2972222222222</v>
       </c>
       <c r="F17" t="n">
-        <v>1750</v>
+        <v>2040</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1292,7 +1284,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2000-12-15T00:00:00.0000000+01:00</t>
+          <t>1995-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1302,7 +1294,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2000-12-15T00:00:00.0000000+01:00</t>
+          <t>1995-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1319,17 +1311,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ASELA</t>
+          <t>AWASSA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7.9575</v>
+        <v>7.08</v>
       </c>
       <c r="E18" t="n">
-        <v>39.1363888888889</v>
+        <v>38.48</v>
       </c>
       <c r="F18" t="n">
-        <v>2400</v>
+        <v>1750</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1338,22 +1330,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1994-07-15T00:00:00.0000000+02:00</t>
+          <t>1995-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1995-09-15T00:00:00.0000000+02:00</t>
+          <t>2000-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1994-07-15T00:00:00.0000000+02:00</t>
+          <t>1995-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1995-09-15T00:00:00.0000000+02:00</t>
+          <t>2000-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -1370,17 +1362,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ZIWAY</t>
+          <t>ASELA</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7.93333333333333</v>
+        <v>7.9575</v>
       </c>
       <c r="E19" t="n">
-        <v>38.7166666666667</v>
+        <v>39.1363888888889</v>
       </c>
       <c r="F19" t="n">
-        <v>1638</v>
+        <v>2400</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1389,7 +1381,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1995-07-15T00:00:00.0000000+02:00</t>
+          <t>1994-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1399,7 +1391,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1995-07-15T00:00:00.0000000+02:00</t>
+          <t>1994-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1416,22 +1408,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Uganda (various sites)</t>
+          <t>Ethiopia (Rift Valley)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ENTEBBE (AIRPORT)</t>
+          <t>ZIWAY</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.05</v>
+        <v>7.93333333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45</v>
+        <v>38.7166666666667</v>
       </c>
       <c r="F20" t="n">
-        <v>1155</v>
+        <v>1638</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1440,22 +1432,22 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1960-03-15T00:00:00.0000000+01:00</t>
+          <t>1995-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>1995-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1961-02-15T00:00:00.0000000+01:00</t>
+          <t>1995-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>1995-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1459,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>worldwide/closed/noContact</t>
+          <t>Uganda (various sites)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>KERICHO</t>
+          <t>ENTEBBE (AIRPORT)</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.37</v>
+        <v>0.05</v>
       </c>
       <c r="E21" t="n">
-        <v>35.35</v>
+        <v>32.45</v>
       </c>
       <c r="F21" t="n">
-        <v>2130</v>
+        <v>1155</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1491,22 +1483,22 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1967-11-15T00:00:00.0000000+01:00</t>
+          <t>1960-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1969-12-15T00:00:00.0000000+01:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1967-11-15T00:00:00.0000000+01:00</t>
+          <t>1961-02-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1970-05-15T00:00:00.0000000+02:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -1523,17 +1515,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MUGUGA</t>
+          <t>KERICHO</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-1.22</v>
+        <v>-0.37</v>
       </c>
       <c r="E22" t="n">
-        <v>36.63</v>
+        <v>35.35</v>
       </c>
       <c r="F22" t="n">
-        <v>2070</v>
+        <v>2130</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1542,22 +1534,22 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1967-02-15T00:00:00.0000000+01:00</t>
+          <t>1967-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1968-06-15T00:00:00.0000000+02:00</t>
+          <t>1969-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1967-02-15T00:00:00.0000000+01:00</t>
+          <t>1967-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1968-06-15T00:00:00.0000000+02:00</t>
+          <t>1970-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1574,17 +1566,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DAR ES SALAAM</t>
+          <t>MUGUGA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-6.88</v>
+        <v>-1.22</v>
       </c>
       <c r="E23" t="n">
-        <v>39.2</v>
+        <v>36.63</v>
       </c>
       <c r="F23" t="n">
-        <v>55</v>
+        <v>2070</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1593,22 +1585,22 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1961-03-15T00:00:00.0000000+01:00</t>
+          <t>1967-02-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1973-10-15T00:00:00.0000000+02:00</t>
+          <t>1968-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1961-03-15T00:00:00.0000000+01:00</t>
+          <t>1967-02-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1973-10-15T00:00:00.0000000+02:00</t>
+          <t>1968-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1625,17 +1617,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MAHE (INDIAN O.)</t>
+          <t>DAR ES SALAAM</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-4.62</v>
+        <v>-6.88</v>
       </c>
       <c r="E24" t="n">
-        <v>55.45</v>
+        <v>39.2</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1644,22 +1636,22 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1961-02-15T00:00:00.0000000+01:00</t>
+          <t>1961-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1963-08-15T00:00:00.0000000+02:00</t>
+          <t>1973-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1961-02-15T00:00:00.0000000+01:00</t>
+          <t>1961-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1963-08-15T00:00:00.0000000+02:00</t>
+          <t>1973-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1668,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>KINSHASA (BINZA)</t>
+          <t>MAHE (INDIAN O.)</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-4.37</v>
+        <v>-4.62</v>
       </c>
       <c r="E25" t="n">
-        <v>15.25</v>
+        <v>55.45</v>
       </c>
       <c r="F25" t="n">
-        <v>438</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1695,22 +1687,22 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1961-03-15T00:00:00.0000000+01:00</t>
+          <t>1961-02-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1968-05-15T00:00:00.0000000+02:00</t>
+          <t>1963-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1961-03-15T00:00:00.0000000+01:00</t>
+          <t>1961-02-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1968-05-15T00:00:00.0000000+02:00</t>
+          <t>1963-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1727,17 +1719,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N'DJAMENA</t>
+          <t>KINSHASA (BINZA)</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12.13</v>
+        <v>-4.37</v>
       </c>
       <c r="E26" t="n">
-        <v>15.03</v>
+        <v>15.25</v>
       </c>
       <c r="F26" t="n">
-        <v>294</v>
+        <v>438</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1746,22 +1738,22 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1964-03-15T00:00:00.0000000+01:00</t>
+          <t>1961-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2021-10-15T00:00:00.0000000+02:00</t>
+          <t>1968-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>1964-03-15T00:00:00.0000000+01:00</t>
+          <t>1961-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2021-10-15T00:00:00.0000000+02:00</t>
+          <t>1968-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1778,17 +1770,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FAYA-LARGEAU</t>
+          <t>N'DJAMENA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>18</v>
+        <v>12.13</v>
       </c>
       <c r="E27" t="n">
-        <v>19.17</v>
+        <v>15.03</v>
       </c>
       <c r="F27" t="n">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1797,22 +1789,22 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1967-08-15T00:00:00.0000000+02:00</t>
+          <t>1964-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1977-08-15T00:00:00.0000000+02:00</t>
+          <t>2021-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1968-08-15T00:00:00.0000000+02:00</t>
+          <t>1964-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1977-08-15T00:00:00.0000000+02:00</t>
+          <t>2021-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1829,17 +1821,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>KANO</t>
+          <t>FAYA-LARGEAU</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12.05</v>
+        <v>18</v>
       </c>
       <c r="E28" t="n">
-        <v>8.529999999999999</v>
+        <v>19.17</v>
       </c>
       <c r="F28" t="n">
-        <v>476</v>
+        <v>234</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1848,22 +1840,22 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1961-05-15T00:00:00.0000000+02:00</t>
+          <t>1967-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1973-09-15T00:00:00.0000000+02:00</t>
+          <t>1977-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1961-05-15T00:00:00.0000000+02:00</t>
+          <t>1968-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1973-09-15T00:00:00.0000000+02:00</t>
+          <t>1977-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1880,17 +1872,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BAROGO</t>
+          <t>KANO</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>12.34</v>
+        <v>12.05</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.57</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>280</v>
+        <v>476</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1899,22 +1891,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1988-04-15T00:00:00.0000000+02:00</t>
+          <t>1961-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1989-10-15T00:00:00.0000000+02:00</t>
+          <t>1973-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1988-04-15T00:00:00.0000000+02:00</t>
+          <t>1961-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1989-10-15T00:00:00.0000000+02:00</t>
+          <t>1973-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1926,22 +1918,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Angola (various sites)</t>
+          <t>worldwide/closed/noContact</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MALANGE</t>
+          <t>BAROGO</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-9.550000000000001</v>
+        <v>12.34</v>
       </c>
       <c r="E30" t="n">
-        <v>16.37</v>
+        <v>-0.57</v>
       </c>
       <c r="F30" t="n">
-        <v>1139</v>
+        <v>280</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1950,22 +1942,22 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1969-01-15T00:00:00.0000000+01:00</t>
+          <t>1988-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1983-04-15T00:00:00.0000000+02:00</t>
+          <t>1989-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1969-01-15T00:00:00.0000000+01:00</t>
+          <t>1988-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1983-03-15T00:00:00.0000000+01:00</t>
+          <t>1989-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -1982,17 +1974,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MENONGUE</t>
+          <t>MALANGE</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-14.67</v>
+        <v>-9.550000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>17.7</v>
+        <v>16.37</v>
       </c>
       <c r="F31" t="n">
-        <v>1348</v>
+        <v>1139</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2006,7 +1998,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1983-03-15T00:00:00.0000000+01:00</t>
+          <t>1983-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2028,22 +2020,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>worldwide/closed/noContact</t>
+          <t>Angola (various sites)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ANTANANARIVO</t>
+          <t>MENONGUE</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-18.9</v>
+        <v>-14.67</v>
       </c>
       <c r="E32" t="n">
-        <v>47.53</v>
+        <v>17.7</v>
       </c>
       <c r="F32" t="n">
-        <v>1300</v>
+        <v>1348</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2052,22 +2044,22 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1961-12-15T00:00:00.0000000+01:00</t>
+          <t>1969-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1974-12-15T00:00:00.0000000+01:00</t>
+          <t>1983-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1961-12-15T00:00:00.0000000+01:00</t>
+          <t>1969-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1975-10-15T00:00:00.0000000+02:00</t>
+          <t>1983-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -2079,22 +2071,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Zambia (Ndola)</t>
+          <t>worldwide/closed/noContact</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NDOLA</t>
+          <t>ANTANANARIVO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-13</v>
+        <v>-18.9</v>
       </c>
       <c r="E33" t="n">
-        <v>28.65</v>
+        <v>47.53</v>
       </c>
       <c r="F33" t="n">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2103,22 +2095,22 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1968-11-15T00:00:00.0000000+01:00</t>
+          <t>1961-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2017-05-15T00:00:00.0000000+02:00</t>
+          <t>1974-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1968-11-15T00:00:00.0000000+01:00</t>
+          <t>1961-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2017-05-15T00:00:00.0000000+02:00</t>
+          <t>1975-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -2130,22 +2122,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>worldwide/closed/noContact</t>
+          <t>Zambia (Ndola)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HARARE</t>
+          <t>NDOLA</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-17.83</v>
+        <v>-13</v>
       </c>
       <c r="E34" t="n">
-        <v>31.02</v>
+        <v>28.65</v>
       </c>
       <c r="F34" t="n">
-        <v>1471</v>
+        <v>1331</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2154,22 +2146,22 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1960-11-15T00:00:00.0000000+01:00</t>
+          <t>1968-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2003-12-15T00:00:00.0000000+01:00</t>
+          <t>2017-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>1960-11-15T00:00:00.0000000+01:00</t>
+          <t>1968-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2003-12-15T00:00:00.0000000+01:00</t>
+          <t>2017-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -2186,17 +2178,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>WINDHOEK</t>
+          <t>HARARE</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-22.9480555555556</v>
+        <v>-17.83</v>
       </c>
       <c r="E35" t="n">
-        <v>17.1525</v>
+        <v>31.02</v>
       </c>
       <c r="F35" t="n">
-        <v>1685</v>
+        <v>1471</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2205,22 +2197,22 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1961-04-15T00:00:00.0000000+02:00</t>
+          <t>1960-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2001-07-15T00:00:00.0000000+02:00</t>
+          <t>2003-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1961-04-15T00:00:00.0000000+02:00</t>
+          <t>1960-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2001-07-15T00:00:00.0000000+02:00</t>
+          <t>2003-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -2237,17 +2229,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PRETORIA</t>
+          <t>WINDHOEK</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-25.73</v>
+        <v>-22.9480555555556</v>
       </c>
       <c r="E36" t="n">
-        <v>28.18</v>
+        <v>17.1525</v>
       </c>
       <c r="F36" t="n">
-        <v>1330</v>
+        <v>1685</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2261,7 +2253,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1997-07-15T00:00:00.0000000+02:00</t>
+          <t>2001-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2271,7 +2263,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1997-07-15T00:00:00.0000000+02:00</t>
+          <t>2001-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -2283,22 +2275,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>South Africa (various sites)</t>
+          <t>worldwide/closed/noContact</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CAPE TOWN AIRPORT</t>
+          <t>PRETORIA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-33.97</v>
+        <v>-25.73</v>
       </c>
       <c r="E37" t="n">
-        <v>18.6</v>
+        <v>28.18</v>
       </c>
       <c r="F37" t="n">
-        <v>44</v>
+        <v>1330</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2312,7 +2304,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2012-11-15T00:00:00.0000000+01:00</t>
+          <t>1997-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2322,7 +2314,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2012-11-15T00:00:00.0000000+01:00</t>
+          <t>1997-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -2339,17 +2331,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GOUGH ISLAND (ATLANTIC O.)</t>
+          <t>CAPE TOWN AIRPORT</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-40.35</v>
+        <v>-33.97</v>
       </c>
       <c r="E38" t="n">
-        <v>-9.880000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="F38" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2363,7 +2355,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2013-08-15T00:00:00.0000000+02:00</t>
+          <t>2012-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2373,7 +2365,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2013-08-15T00:00:00.0000000+02:00</t>
+          <t>2012-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -2390,17 +2382,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MARION ISLAND (INDIAN O.)</t>
+          <t>GOUGH ISLAND (ATLANTIC O.)</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-46.88</v>
+        <v>-40.35</v>
       </c>
       <c r="E39" t="n">
-        <v>37.87</v>
+        <v>-9.880000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2414,7 +2406,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2013-04-15T00:00:00.0000000+02:00</t>
+          <t>2013-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2424,7 +2416,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2013-04-15T00:00:00.0000000+02:00</t>
+          <t>2013-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -2436,22 +2428,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Egypt (various sites)</t>
+          <t>South Africa (various sites)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SIDI BARRANI</t>
+          <t>MARION ISLAND (INDIAN O.)</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>31.62</v>
+        <v>-46.88</v>
       </c>
       <c r="E40" t="n">
-        <v>25.95</v>
+        <v>37.87</v>
       </c>
       <c r="F40" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2460,22 +2452,22 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1978-10-15T00:00:00.0000000+02:00</t>
+          <t>1961-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2002-12-27T00:00:00.0000000+01:00</t>
+          <t>2013-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>1978-10-15T00:00:00.0000000+02:00</t>
+          <t>1961-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2002-12-27T00:00:00.0000000+01:00</t>
+          <t>2013-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -2492,17 +2484,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ALEXANDRIA</t>
+          <t>SIDI BARRANI</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>31.1833333333333</v>
+        <v>31.62</v>
       </c>
       <c r="E41" t="n">
-        <v>29.95</v>
+        <v>25.95</v>
       </c>
       <c r="F41" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2511,22 +2503,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1961-10-15T00:00:00.0000000+02:00</t>
+          <t>1978-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2004-04-15T00:00:00.0000000+02:00</t>
+          <t>2002-12-27T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1961-10-15T00:00:00.0000000+02:00</t>
+          <t>1978-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2004-04-15T00:00:00.0000000+02:00</t>
+          <t>2002-12-27T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -2543,17 +2535,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CAIRO</t>
+          <t>ALEXANDRIA</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>30.08</v>
+        <v>31.1833333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>31.28</v>
+        <v>29.95</v>
       </c>
       <c r="F42" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2562,22 +2554,22 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1987-03-15T00:00:00.0000000+01:00</t>
+          <t>1961-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2003-03-15T00:00:00.0000000+01:00</t>
+          <t>2004-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1987-03-15T00:00:00.0000000+01:00</t>
+          <t>1961-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2003-03-15T00:00:00.0000000+01:00</t>
+          <t>2004-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -2589,22 +2581,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tunisia (various sites)</t>
+          <t>Egypt (various sites)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SFAX</t>
+          <t>CAIRO</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>34.7166666666667</v>
+        <v>30.08</v>
       </c>
       <c r="E43" t="n">
-        <v>10.6833333333333</v>
+        <v>31.28</v>
       </c>
       <c r="F43" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2613,22 +2605,22 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1992-09-15T00:00:00.0000000+02:00</t>
+          <t>1987-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2018-11-15T00:00:00.0000000+01:00</t>
+          <t>2003-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>1992-09-15T00:00:00.0000000+02:00</t>
+          <t>1987-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2018-11-15T00:00:00.0000000+01:00</t>
+          <t>2003-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -2640,22 +2632,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Algeria (Algiers-CN)</t>
+          <t>Tunisia (various sites)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ALGIERS-CN</t>
+          <t>SFAX</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>36.78</v>
+        <v>34.7166666666667</v>
       </c>
       <c r="E44" t="n">
-        <v>3.05222222222222</v>
+        <v>10.6833333333333</v>
       </c>
       <c r="F44" t="n">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2664,22 +2656,22 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1998-03-15T00:00:00.0000000+01:00</t>
+          <t>1992-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2006-05-15T00:00:00.0000000+02:00</t>
+          <t>2018-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>1998-01-15T00:00:00.0000000+01:00</t>
+          <t>1992-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2006-05-15T00:00:00.0000000+02:00</t>
+          <t>2018-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -2691,22 +2683,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Algeria (Algiers-Univ.)</t>
+          <t>Algeria (Algiers-CN)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ALGIERS UNIVERSITY</t>
+          <t>ALGIERS-CN</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>36.72</v>
+        <v>36.78</v>
       </c>
       <c r="E45" t="n">
-        <v>3.18</v>
+        <v>3.05222222222222</v>
       </c>
       <c r="F45" t="n">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2715,22 +2707,22 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2001-09-15T00:00:00.0000000+02:00</t>
+          <t>1998-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2003-05-10T00:00:00.0000000+02:00</t>
+          <t>2006-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2001-09-15T00:00:00.0000000+02:00</t>
+          <t>1998-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2003-05-10T00:00:00.0000000+02:00</t>
+          <t>2006-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -2742,22 +2734,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Egypt (various sites)</t>
+          <t>Algeria (Algiers-Univ.)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EL-ARISH</t>
+          <t>ALGIERS UNIVERSITY</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>31.08</v>
+        <v>36.72</v>
       </c>
       <c r="E46" t="n">
-        <v>33.83</v>
+        <v>3.18</v>
       </c>
       <c r="F46" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2766,22 +2758,22 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2001-01-15T00:00:00.0000000+01:00</t>
+          <t>2001-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2003-03-15T00:00:00.0000000+01:00</t>
+          <t>2003-05-10T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2001-01-15T00:00:00.0000000+01:00</t>
+          <t>2001-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2003-03-15T00:00:00.0000000+01:00</t>
+          <t>2003-05-10T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -2793,22 +2785,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tunisia (various sites)</t>
+          <t>Egypt (various sites)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LE KEF</t>
+          <t>EL-ARISH</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>36.1722222222222</v>
+        <v>31.08</v>
       </c>
       <c r="E47" t="n">
-        <v>8.728055555555549</v>
+        <v>33.83</v>
       </c>
       <c r="F47" t="n">
-        <v>654</v>
+        <v>31</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2822,17 +2814,17 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2004-01-15T00:00:00.0000000+01:00</t>
+          <t>2003-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2000-11-15T00:00:00.0000000+01:00</t>
+          <t>2001-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2004-01-15T00:00:00.0000000+01:00</t>
+          <t>2003-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -2844,22 +2836,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Egypt (various sites)</t>
+          <t>Tunisia (various sites)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MARSA-MATRUH</t>
+          <t>LE KEF</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31.33</v>
+        <v>36.1722222222222</v>
       </c>
       <c r="E48" t="n">
-        <v>27.2166666666667</v>
+        <v>8.728055555555549</v>
       </c>
       <c r="F48" t="n">
-        <v>25</v>
+        <v>654</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2873,17 +2865,17 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2003-03-15T00:00:00.0000000+01:00</t>
+          <t>2004-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2001-01-15T00:00:00.0000000+01:00</t>
+          <t>2000-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2003-03-15T00:00:00.0000000+01:00</t>
+          <t>2004-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -2900,17 +2892,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RAFAH</t>
+          <t>MARSA-MATRUH</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>31.2833333333333</v>
+        <v>31.33</v>
       </c>
       <c r="E49" t="n">
-        <v>34.2333333333333</v>
+        <v>27.2166666666667</v>
       </c>
       <c r="F49" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2951,17 +2943,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RAS ELTINE</t>
+          <t>RAFAH</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>31.2</v>
+        <v>31.2833333333333</v>
       </c>
       <c r="E50" t="n">
-        <v>29.85</v>
+        <v>34.2333333333333</v>
       </c>
       <c r="F50" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2975,17 +2967,17 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
+          <t>2003-03-15T00:00:00.0000000+01:00</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
           <t>2001-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>2001-01-15T00:00:00.0000000+01:00</t>
-        </is>
-      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2001-01-15T00:00:00.0000000+01:00</t>
+          <t>2003-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -3002,17 +2994,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SAINT CATHRENE</t>
+          <t>RAS ELTINE</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>28.68</v>
+        <v>31.2</v>
       </c>
       <c r="E51" t="n">
-        <v>34.1</v>
+        <v>29.85</v>
       </c>
       <c r="F51" t="n">
-        <v>1350</v>
+        <v>15</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3021,22 +3013,22 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2001-03-15T00:00:00.0000000+01:00</t>
+          <t>2001-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2001-04-15T00:00:00.0000000+02:00</t>
+          <t>2001-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2001-03-15T00:00:00.0000000+01:00</t>
+          <t>2001-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2001-04-15T00:00:00.0000000+02:00</t>
+          <t>2001-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -3048,22 +3040,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Reunion</t>
+          <t>Egypt (various sites)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SAINT DENIS (GILLOT) REUNION</t>
+          <t>SAINT CATHRENE</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-20.901</v>
+        <v>28.68</v>
       </c>
       <c r="E52" t="n">
-        <v>55.484</v>
+        <v>34.1</v>
       </c>
       <c r="F52" t="n">
-        <v>70</v>
+        <v>1350</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3072,22 +3064,22 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2001-10-01T00:00:00.0000000+02:00</t>
+          <t>2001-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2021-11-15T00:00:00.0000000+01:00</t>
+          <t>2001-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2001-10-01T00:00:00.0000000+02:00</t>
+          <t>2001-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2021-11-15T00:00:00.0000000+01:00</t>
+          <t>2001-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -3099,22 +3091,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Morocco (various sites)</t>
+          <t>Reunion</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BAB BOU IDIR</t>
+          <t>SAINT DENIS (GILLOT) REUNION</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>34.0722222222222</v>
+        <v>-20.901</v>
       </c>
       <c r="E53" t="n">
-        <v>-4.12361111111111</v>
+        <v>55.484</v>
       </c>
       <c r="F53" t="n">
-        <v>1500</v>
+        <v>70</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3123,22 +3115,22 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2001-01-15T00:00:00.0000000+01:00</t>
+          <t>2001-10-01T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2002-12-15T00:00:00.0000000+01:00</t>
+          <t>2021-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2001-01-15T00:00:00.0000000+01:00</t>
+          <t>2001-10-01T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2002-12-15T00:00:00.0000000+01:00</t>
+          <t>2021-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -3155,17 +3147,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BENI MELLAL</t>
+          <t>BAB BOU IDIR</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>32.3666666666667</v>
+        <v>34.0722222222222</v>
       </c>
       <c r="E54" t="n">
-        <v>-6.4</v>
+        <v>-4.12361111111111</v>
       </c>
       <c r="F54" t="n">
-        <v>468</v>
+        <v>1500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3174,22 +3166,22 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2002-01-15T00:00:00.0000000+01:00</t>
+          <t>2001-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2003-04-19T00:00:00.0000000+02:00</t>
+          <t>2002-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2002-01-15T00:00:00.0000000+01:00</t>
+          <t>2001-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2003-04-19T00:00:00.0000000+02:00</t>
+          <t>2002-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -3206,17 +3198,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>RABAT-CNESTEN</t>
+          <t>BENI MELLAL</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>34.0193777777778</v>
+        <v>32.3666666666667</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.83828611111111</v>
+        <v>-6.4</v>
       </c>
       <c r="F55" t="n">
-        <v>75</v>
+        <v>468</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3225,22 +3217,22 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2002-02-15T00:00:00.0000000+01:00</t>
+          <t>2002-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2003-04-23T00:00:00.0000000+02:00</t>
+          <t>2003-04-19T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2002-02-15T00:00:00.0000000+01:00</t>
+          <t>2002-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>2003-04-23T00:00:00.0000000+02:00</t>
+          <t>2003-04-19T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -3252,22 +3244,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Reunion (Haut de St Rose)</t>
+          <t>Morocco (various sites)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>HAUT DE ST ROSE (REUNION)</t>
+          <t>RABAT-CNESTEN</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-21.15</v>
+        <v>34.0193777777778</v>
       </c>
       <c r="E56" t="n">
-        <v>55.75</v>
+        <v>-6.83828611111111</v>
       </c>
       <c r="F56" t="n">
-        <v>820</v>
+        <v>75</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3276,22 +3268,22 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1985-06-01T00:00:00.0000000+02:00</t>
+          <t>2002-02-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2001-03-15T00:00:00.0000000+01:00</t>
+          <t>2003-04-23T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1985-06-01T00:00:00.0000000+02:00</t>
+          <t>2002-02-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2001-03-15T00:00:00.0000000+01:00</t>
+          <t>2003-04-23T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -3303,22 +3295,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cameroon/Njitchoua1</t>
+          <t>Reunion (Haut de St Rose)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>KRIBI</t>
+          <t>HAUT DE ST ROSE (REUNION)</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2.93333333333333</v>
+        <v>-21.15</v>
       </c>
       <c r="E57" t="n">
-        <v>9.9</v>
+        <v>55.75</v>
       </c>
       <c r="F57" t="n">
-        <v>18</v>
+        <v>820</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3327,22 +3319,22 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1994-08-20T00:00:00.0000000+02:00</t>
+          <t>1985-06-01T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1994-11-14T00:00:00.0000000+01:00</t>
+          <t>2001-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1994-08-20T00:00:00.0000000+02:00</t>
+          <t>1985-06-01T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1994-11-14T00:00:00.0000000+01:00</t>
+          <t>2001-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -3359,17 +3351,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EBOLOWA</t>
+          <t>KRIBI</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2.91666666666667</v>
+        <v>2.93333333333333</v>
       </c>
       <c r="E58" t="n">
-        <v>11.1583333333333</v>
+        <v>9.9</v>
       </c>
       <c r="F58" t="n">
-        <v>628</v>
+        <v>18</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3378,22 +3370,22 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1994-08-24T00:00:00.0000000+02:00</t>
+          <t>1994-08-20T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1994-09-26T00:00:00.0000000+02:00</t>
+          <t>1994-11-14T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1994-08-24T00:00:00.0000000+02:00</t>
+          <t>1994-08-20T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1994-09-26T00:00:00.0000000+02:00</t>
+          <t>1994-11-14T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -3410,17 +3402,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SANGMELIMA</t>
+          <t>EBOLOWA</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2.93333333333333</v>
+        <v>2.91666666666667</v>
       </c>
       <c r="E59" t="n">
-        <v>11.9833333333333</v>
+        <v>11.1583333333333</v>
       </c>
       <c r="F59" t="n">
-        <v>713</v>
+        <v>628</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3429,22 +3421,22 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1994-08-15T00:00:00.0000000+02:00</t>
+          <t>1994-08-24T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>1994-11-16T00:00:00.0000000+01:00</t>
+          <t>1994-09-26T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>1994-08-15T00:00:00.0000000+02:00</t>
+          <t>1994-08-24T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1994-11-16T00:00:00.0000000+01:00</t>
+          <t>1994-09-26T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -3461,17 +3453,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SOMALOMO</t>
+          <t>SANGMELIMA</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3.41666666666667</v>
+        <v>2.93333333333333</v>
       </c>
       <c r="E60" t="n">
-        <v>12.6666666666667</v>
+        <v>11.9833333333333</v>
       </c>
       <c r="F60" t="n">
-        <v>617</v>
+        <v>713</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3480,22 +3472,22 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1994-08-11T00:00:00.0000000+02:00</t>
+          <t>1994-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>1994-11-14T00:00:00.0000000+01:00</t>
+          <t>1994-11-16T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1994-08-11T00:00:00.0000000+02:00</t>
+          <t>1994-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>1994-11-14T00:00:00.0000000+01:00</t>
+          <t>1994-11-16T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -3512,17 +3504,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ABONG-MBANG</t>
+          <t>SOMALOMO</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3.96666666666667</v>
+        <v>3.41666666666667</v>
       </c>
       <c r="E61" t="n">
-        <v>13.2</v>
+        <v>12.6666666666667</v>
       </c>
       <c r="F61" t="n">
-        <v>694</v>
+        <v>617</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3531,22 +3523,22 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1994-08-07T00:00:00.0000000+02:00</t>
+          <t>1994-08-11T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1994-11-16T00:00:00.0000000+01:00</t>
+          <t>1994-11-14T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>1994-08-07T00:00:00.0000000+02:00</t>
+          <t>1994-08-11T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1994-11-16T00:00:00.0000000+01:00</t>
+          <t>1994-11-14T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -3563,17 +3555,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MOLOUNDOU</t>
+          <t>ABONG-MBANG</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2.05</v>
+        <v>3.96666666666667</v>
       </c>
       <c r="E62" t="n">
-        <v>15.2166666666667</v>
+        <v>13.2</v>
       </c>
       <c r="F62" t="n">
-        <v>500</v>
+        <v>694</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3582,22 +3574,22 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1994-08-08T00:00:00.0000000+02:00</t>
+          <t>1994-08-07T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1994-11-24T00:00:00.0000000+01:00</t>
+          <t>1994-11-16T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>1994-08-08T00:00:00.0000000+02:00</t>
+          <t>1994-08-07T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1994-11-24T00:00:00.0000000+01:00</t>
+          <t>1994-11-16T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3601,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>worldwide/closed/noContact</t>
+          <t>Cameroon/Njitchoua1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>RAS-ELTINE</t>
+          <t>MOLOUNDOU</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>31.2</v>
+        <v>2.05</v>
       </c>
       <c r="E63" t="n">
-        <v>29.88</v>
+        <v>15.2166666666667</v>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3633,22 +3625,22 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2001-01-02T00:00:00.0000000+01:00</t>
+          <t>1994-08-08T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2001-01-18T00:00:00.0000000+01:00</t>
+          <t>1994-11-24T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2001-01-02T00:00:00.0000000+01:00</t>
+          <t>1994-08-08T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>2001-01-18T00:00:00.0000000+01:00</t>
+          <t>1994-11-24T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -3660,22 +3652,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Morocco/CNESTEN</t>
+          <t>worldwide/closed/noContact</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MAMOORA-KENITRA (CNESTEN)</t>
+          <t>RAS-ELTINE</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>34.0193777777778</v>
+        <v>31.2</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.83828611111111</v>
+        <v>29.88</v>
       </c>
       <c r="F64" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3684,22 +3676,22 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2000-10-12T00:00:00.0000000+02:00</t>
+          <t>2001-01-02T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2003-04-16T00:00:00.0000000+02:00</t>
+          <t>2001-01-18T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2000-10-12T00:00:00.0000000+02:00</t>
+          <t>2001-01-02T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>2003-04-16T00:00:00.0000000+02:00</t>
+          <t>2001-01-18T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -3711,22 +3703,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mali (various sites)</t>
+          <t>Morocco/CNESTEN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>YORO</t>
+          <t>MAMOORA-KENITRA (CNESTEN)</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>14.2785</v>
+        <v>34.0193777777778</v>
       </c>
       <c r="E65" t="n">
-        <v>-2.1365</v>
+        <v>-6.83828611111111</v>
       </c>
       <c r="F65" t="n">
-        <v>303</v>
+        <v>75</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3735,22 +3727,22 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1997-06-15T00:00:00.0000000+02:00</t>
+          <t>2000-10-12T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1997-10-15T00:00:00.0000000+02:00</t>
+          <t>2003-04-16T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>1997-06-15T00:00:00.0000000+02:00</t>
+          <t>2000-10-12T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1997-10-15T00:00:00.0000000+02:00</t>
+          <t>2003-04-16T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -3767,17 +3759,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DAIDOUROU</t>
+          <t>YORO</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>14.4123333333333</v>
+        <v>14.2785</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.69766666666667</v>
+        <v>-2.1365</v>
       </c>
       <c r="F66" t="n">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3818,17 +3810,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>KORO</t>
+          <t>DAIDOUROU</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>14.0616666666667</v>
+        <v>14.4123333333333</v>
       </c>
       <c r="E67" t="n">
-        <v>-3.075</v>
+        <v>-2.69766666666667</v>
       </c>
       <c r="F67" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3869,17 +3861,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BAMBA</t>
+          <t>KORO</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>14.6461666666667</v>
+        <v>14.0616666666667</v>
       </c>
       <c r="E68" t="n">
-        <v>-3.11183333333333</v>
+        <v>-3.075</v>
       </c>
       <c r="F68" t="n">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3920,17 +3912,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>HOMBORI</t>
+          <t>BAMBA</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>15.292</v>
+        <v>14.6461666666667</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.71116666666667</v>
+        <v>-3.11183333333333</v>
       </c>
       <c r="F69" t="n">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3971,17 +3963,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BONI</t>
+          <t>HOMBORI</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>15.077</v>
+        <v>15.292</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.22066666666667</v>
+        <v>-1.71116666666667</v>
       </c>
       <c r="F70" t="n">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4017,22 +4009,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>worldwide/closed/noContact</t>
+          <t>Mali (various sites)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ALEXANDRIA-DAILY</t>
+          <t>BONI</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>31.2025</v>
+        <v>15.077</v>
       </c>
       <c r="E71" t="n">
-        <v>29.8766666666667</v>
+        <v>-2.22066666666667</v>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>271</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4041,22 +4033,22 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2000-12-03T00:00:00.0000000+01:00</t>
+          <t>1997-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2002-12-28T00:00:00.0000000+01:00</t>
+          <t>1997-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2000-12-03T00:00:00.0000000+01:00</t>
+          <t>1997-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>2002-12-28T00:00:00.0000000+01:00</t>
+          <t>1997-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -4068,22 +4060,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ethiopia (southern zone)</t>
+          <t>worldwide/closed/noContact</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NEGHELLE</t>
+          <t>ALEXANDRIA-DAILY</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>5.32</v>
+        <v>31.2025</v>
       </c>
       <c r="E72" t="n">
-        <v>39.58</v>
+        <v>29.8766666666667</v>
       </c>
       <c r="F72" t="n">
-        <v>1544</v>
+        <v>5</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4092,22 +4084,22 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1995-04-15T00:00:00.0000000+02:00</t>
+          <t>2000-12-03T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>1995-06-15T00:00:00.0000000+02:00</t>
+          <t>2002-12-28T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>1995-04-15T00:00:00.0000000+02:00</t>
+          <t>2000-12-03T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>1995-06-15T00:00:00.0000000+02:00</t>
+          <t>2002-12-28T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -4124,17 +4116,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>YAVELLO</t>
+          <t>NEGHELLE</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>4.88</v>
+        <v>5.32</v>
       </c>
       <c r="E73" t="n">
-        <v>38.08</v>
+        <v>39.58</v>
       </c>
       <c r="F73" t="n">
-        <v>1778</v>
+        <v>1544</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4175,17 +4167,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MEGA</t>
+          <t>YAVELLO</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4.05833333333333</v>
+        <v>4.88</v>
       </c>
       <c r="E74" t="n">
-        <v>38.3166666666667</v>
+        <v>38.08</v>
       </c>
       <c r="F74" t="n">
-        <v>1254</v>
+        <v>1778</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4199,7 +4191,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>1995-07-15T00:00:00.0000000+02:00</t>
+          <t>1995-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4209,7 +4201,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>1995-07-15T00:00:00.0000000+02:00</t>
+          <t>1995-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -4226,17 +4218,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HIDOLOLA</t>
+          <t>MEGA</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3.74166666666667</v>
+        <v>4.05833333333333</v>
       </c>
       <c r="E75" t="n">
-        <v>38.575</v>
+        <v>38.3166666666667</v>
       </c>
       <c r="F75" t="n">
-        <v>1352</v>
+        <v>1254</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4277,17 +4269,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MOYALE</t>
+          <t>HIDOLOLA</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3.51</v>
+        <v>3.74166666666667</v>
       </c>
       <c r="E76" t="n">
-        <v>39.08</v>
+        <v>38.575</v>
       </c>
       <c r="F76" t="n">
-        <v>1090</v>
+        <v>1352</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4323,22 +4315,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ethiopia (Northern Highlands)</t>
+          <t>Ethiopia (southern zone)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ALEMEYA</t>
+          <t>MOYALE</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>9.4</v>
+        <v>3.51</v>
       </c>
       <c r="E77" t="n">
-        <v>42.0166666666667</v>
+        <v>39.08</v>
       </c>
       <c r="F77" t="n">
-        <v>2023</v>
+        <v>1090</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4347,22 +4339,22 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2002-04-15T00:00:00.0000000+02:00</t>
+          <t>1995-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2003-05-15T00:00:00.0000000+02:00</t>
+          <t>1995-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2002-04-15T00:00:00.0000000+02:00</t>
+          <t>1995-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>2003-05-15T00:00:00.0000000+02:00</t>
+          <t>1995-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -4379,17 +4371,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>COMBOLCHA</t>
+          <t>ALEMEYA</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>11.0830555555556</v>
+        <v>9.4</v>
       </c>
       <c r="E78" t="n">
-        <v>39.7175</v>
+        <v>42.0166666666667</v>
       </c>
       <c r="F78" t="n">
-        <v>1929</v>
+        <v>2023</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4403,7 +4395,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2002-12-15T00:00:00.0000000+01:00</t>
+          <t>2003-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4413,7 +4405,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>2002-12-15T00:00:00.0000000+01:00</t>
+          <t>2003-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -4430,17 +4422,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DESSIE</t>
+          <t>COMBOLCHA</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>11.0833333333333</v>
+        <v>11.0830555555556</v>
       </c>
       <c r="E79" t="n">
         <v>39.7175</v>
       </c>
       <c r="F79" t="n">
-        <v>2551</v>
+        <v>1929</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4481,17 +4473,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DIREDAWA</t>
+          <t>DESSIE</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>9.583055555555561</v>
+        <v>11.0833333333333</v>
       </c>
       <c r="E80" t="n">
-        <v>41.8666666666667</v>
+        <v>39.7175</v>
       </c>
       <c r="F80" t="n">
-        <v>1231</v>
+        <v>2551</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4505,7 +4497,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2003-08-15T00:00:00.0000000+02:00</t>
+          <t>2002-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4515,7 +4507,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>2003-08-15T00:00:00.0000000+02:00</t>
+          <t>2002-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -4527,22 +4519,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ethiopia (Rift Valley)</t>
+          <t>Ethiopia (Northern Highlands)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HAGERE SELAM</t>
+          <t>DIREDAWA</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>6.48</v>
+        <v>9.583055555555561</v>
       </c>
       <c r="E81" t="n">
-        <v>38.51</v>
+        <v>41.8666666666667</v>
       </c>
       <c r="F81" t="n">
-        <v>2820</v>
+        <v>1231</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4551,22 +4543,22 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>1999-05-15T00:00:00.0000000+02:00</t>
+          <t>2002-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2001-01-15T00:00:00.0000000+01:00</t>
+          <t>2003-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>1999-05-15T00:00:00.0000000+02:00</t>
+          <t>2002-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2001-01-15T00:00:00.0000000+01:00</t>
+          <t>2003-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -4578,22 +4570,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ethiopia (Northern Highlands)</t>
+          <t>Ethiopia (Rift Valley)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>HARAR</t>
+          <t>HAGERE SELAM</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>9.31666666666667</v>
+        <v>6.48</v>
       </c>
       <c r="E82" t="n">
-        <v>42.1166666666667</v>
+        <v>38.51</v>
       </c>
       <c r="F82" t="n">
-        <v>1924</v>
+        <v>2820</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4602,22 +4594,22 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2002-04-15T00:00:00.0000000+02:00</t>
+          <t>1999-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2002-12-15T00:00:00.0000000+01:00</t>
+          <t>2001-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2002-04-15T00:00:00.0000000+02:00</t>
+          <t>1999-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2002-12-15T00:00:00.0000000+01:00</t>
+          <t>2001-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -4634,17 +4626,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>KOBO</t>
+          <t>HARAR</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>12.1441666666667</v>
+        <v>9.31666666666667</v>
       </c>
       <c r="E83" t="n">
-        <v>39.6408333333333</v>
+        <v>42.1166666666667</v>
       </c>
       <c r="F83" t="n">
-        <v>1518</v>
+        <v>1924</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4653,7 +4645,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2002-05-15T00:00:00.0000000+02:00</t>
+          <t>2002-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4663,7 +4655,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2002-05-15T00:00:00.0000000+02:00</t>
+          <t>2002-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4680,22 +4672,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ethiopia (Rift Valley)</t>
+          <t>Ethiopia (Northern Highlands)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>KOFELE</t>
+          <t>KOBO</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>7.07</v>
+        <v>12.1441666666667</v>
       </c>
       <c r="E84" t="n">
-        <v>38.78</v>
+        <v>39.6408333333333</v>
       </c>
       <c r="F84" t="n">
-        <v>2680</v>
+        <v>1518</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4704,22 +4696,22 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>1999-05-15T00:00:00.0000000+02:00</t>
+          <t>2002-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2000-12-15T00:00:00.0000000+01:00</t>
+          <t>2002-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>1999-05-15T00:00:00.0000000+02:00</t>
+          <t>2002-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>2000-12-15T00:00:00.0000000+01:00</t>
+          <t>2002-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -4736,17 +4728,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SODDO</t>
+          <t>KOFELE</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>6.86</v>
+        <v>7.07</v>
       </c>
       <c r="E85" t="n">
-        <v>37.74</v>
+        <v>38.78</v>
       </c>
       <c r="F85" t="n">
-        <v>2020</v>
+        <v>2680</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4782,22 +4774,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ethiopia (Northern Highlands)</t>
+          <t>Ethiopia (Rift Valley)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>WELDIYA</t>
+          <t>SODDO</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>11.8244444444444</v>
+        <v>6.86</v>
       </c>
       <c r="E86" t="n">
-        <v>39.585</v>
+        <v>37.74</v>
       </c>
       <c r="F86" t="n">
-        <v>1920</v>
+        <v>2020</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4806,22 +4798,22 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2002-05-15T00:00:00.0000000+02:00</t>
+          <t>1999-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2002-12-15T00:00:00.0000000+01:00</t>
+          <t>2000-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2002-05-15T00:00:00.0000000+02:00</t>
+          <t>1999-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>2002-12-15T00:00:00.0000000+01:00</t>
+          <t>2000-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -4838,17 +4830,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>WELEDI</t>
+          <t>WELDIYA</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>10.8386111111111</v>
+        <v>11.8244444444444</v>
       </c>
       <c r="E87" t="n">
-        <v>39.8069444444444</v>
+        <v>39.585</v>
       </c>
       <c r="F87" t="n">
-        <v>1537</v>
+        <v>1920</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4857,7 +4849,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2002-04-15T00:00:00.0000000+02:00</t>
+          <t>2002-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4867,7 +4859,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2002-04-15T00:00:00.0000000+02:00</t>
+          <t>2002-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -4889,17 +4881,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ADU BARIYE</t>
+          <t>WELEDI</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>12.5419444444444</v>
+        <v>10.8386111111111</v>
       </c>
       <c r="E88" t="n">
-        <v>39.7697222222222</v>
+        <v>39.8069444444444</v>
       </c>
       <c r="F88" t="n">
-        <v>1832</v>
+        <v>1537</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -4908,22 +4900,22 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2002-06-15T00:00:00.0000000+02:00</t>
+          <t>2002-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2002-10-15T00:00:00.0000000+02:00</t>
+          <t>2002-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2002-06-15T00:00:00.0000000+02:00</t>
+          <t>2002-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>2002-10-15T00:00:00.0000000+02:00</t>
+          <t>2002-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -4935,22 +4927,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Mauritius (various sites)</t>
+          <t>Ethiopia (Northern Highlands)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GOODEND</t>
+          <t>ADU BARIYE</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-20.3625</v>
+        <v>12.5419444444444</v>
       </c>
       <c r="E89" t="n">
-        <v>57.4855555555556</v>
+        <v>39.7697222222222</v>
       </c>
       <c r="F89" t="n">
-        <v>573</v>
+        <v>1832</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -4959,22 +4951,22 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>1992-02-15T00:00:00.0000000+01:00</t>
+          <t>2002-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1995-08-15T00:00:00.0000000+02:00</t>
+          <t>2002-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>1992-02-15T00:00:00.0000000+01:00</t>
+          <t>2002-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>1995-08-15T00:00:00.0000000+02:00</t>
+          <t>2002-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -4991,17 +4983,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>HIGHLANDS</t>
+          <t>GOODEND</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-20.2636111111111</v>
+        <v>-20.3625</v>
       </c>
       <c r="E90" t="n">
-        <v>57.5169444444444</v>
+        <v>57.4855555555556</v>
       </c>
       <c r="F90" t="n">
-        <v>418</v>
+        <v>573</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5042,17 +5034,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MEDINE SE</t>
+          <t>HIGHLANDS</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-20.2680555555556</v>
+        <v>-20.2636111111111</v>
       </c>
       <c r="E91" t="n">
-        <v>57.3983333333333</v>
+        <v>57.5169444444444</v>
       </c>
       <c r="F91" t="n">
-        <v>111</v>
+        <v>418</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5093,17 +5085,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SAVINIA</t>
+          <t>MEDINE SE</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-20.4758333333333</v>
+        <v>-20.2680555555556</v>
       </c>
       <c r="E92" t="n">
-        <v>57.6394444444444</v>
+        <v>57.3983333333333</v>
       </c>
       <c r="F92" t="n">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5144,17 +5136,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ST. ANTOINE</t>
+          <t>SAVINIA</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-20.0427777777778</v>
+        <v>-20.4758333333333</v>
       </c>
       <c r="E93" t="n">
-        <v>57.6669444444444</v>
+        <v>57.6394444444444</v>
       </c>
       <c r="F93" t="n">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5190,22 +5182,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mali (Gondo plain)</t>
+          <t>Mauritius (various sites)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>TOMBOUCTOU</t>
+          <t>ST. ANTOINE</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>16.7666666666667</v>
+        <v>-20.0427777777778</v>
       </c>
       <c r="E94" t="n">
-        <v>-3.01666666666667</v>
+        <v>57.6669444444444</v>
       </c>
       <c r="F94" t="n">
-        <v>266</v>
+        <v>28</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -5214,22 +5206,22 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2000-07-15T00:00:00.0000000+02:00</t>
+          <t>1992-02-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2000-09-15T00:00:00.0000000+02:00</t>
+          <t>1995-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2000-07-15T00:00:00.0000000+02:00</t>
+          <t>1992-02-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>2000-09-15T00:00:00.0000000+02:00</t>
+          <t>1995-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -5246,17 +5238,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TONKA</t>
+          <t>TOMBOUCTOU</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>16.1436111111111</v>
+        <v>16.7666666666667</v>
       </c>
       <c r="E95" t="n">
-        <v>-3.75</v>
+        <v>-3.01666666666667</v>
       </c>
       <c r="F95" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5270,7 +5262,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2000-10-15T00:00:00.0000000+02:00</t>
+          <t>2000-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5280,7 +5272,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>2000-10-15T00:00:00.0000000+02:00</t>
+          <t>2000-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -5297,17 +5289,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ANSONGO</t>
+          <t>TONKA</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>15.6594444444444</v>
+        <v>16.1436111111111</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5</v>
+        <v>-3.75</v>
       </c>
       <c r="F96" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5321,7 +5313,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2000-08-15T00:00:00.0000000+02:00</t>
+          <t>2000-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5331,7 +5323,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>2000-09-15T00:00:00.0000000+02:00</t>
+          <t>2000-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -5343,22 +5335,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>worldwide/closed/noContact</t>
+          <t>Mali (Gondo plain)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DODOMA</t>
+          <t>ANSONGO</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-6.18527</v>
+        <v>15.6594444444444</v>
       </c>
       <c r="E97" t="n">
-        <v>35.75335</v>
+        <v>0.5</v>
       </c>
       <c r="F97" t="n">
-        <v>1157</v>
+        <v>266</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5367,22 +5359,22 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1993-01-15T00:00:00.0000000+01:00</t>
+          <t>2000-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2017-03-15T00:00:00.0000000+01:00</t>
+          <t>2000-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>1993-01-15T00:00:00.0000000+01:00</t>
+          <t>2000-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2017-03-15T00:00:00.0000000+01:00</t>
+          <t>2000-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -5399,17 +5391,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>RUKUNGIRI</t>
+          <t>DODOMA</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-0.841111111111111</v>
+        <v>-6.18527</v>
       </c>
       <c r="E98" t="n">
-        <v>29.9419444444444</v>
+        <v>35.75335</v>
       </c>
       <c r="F98" t="n">
-        <v>1595</v>
+        <v>1157</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5418,22 +5410,22 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2003-11-15T00:00:00.0000000+01:00</t>
+          <t>1993-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2006-06-15T00:00:00.0000000+02:00</t>
+          <t>2017-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>2003-11-15T00:00:00.0000000+01:00</t>
+          <t>1993-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>2006-06-15T00:00:00.0000000+02:00</t>
+          <t>2017-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -5445,22 +5437,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Uganda (various sites)</t>
+          <t>worldwide/closed/noContact</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>JINJA</t>
+          <t>RUKUNGIRI</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.453055555555556</v>
+        <v>-0.841111111111111</v>
       </c>
       <c r="E99" t="n">
-        <v>33.195</v>
+        <v>29.9419444444444</v>
       </c>
       <c r="F99" t="n">
-        <v>1181</v>
+        <v>1595</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5474,7 +5466,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2006-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5484,7 +5476,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2006-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -5496,22 +5488,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>worldwide/closed/noContact</t>
+          <t>Uganda (various sites)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>KISORO</t>
+          <t>JINJA</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-1.28361111111111</v>
+        <v>0.453055555555556</v>
       </c>
       <c r="E100" t="n">
-        <v>29.6919444444444</v>
+        <v>33.195</v>
       </c>
       <c r="F100" t="n">
-        <v>1924</v>
+        <v>1181</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5520,22 +5512,22 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2001-07-15T00:00:00.0000000+02:00</t>
+          <t>2003-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2002-04-15T00:00:00.0000000+02:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>2001-07-15T00:00:00.0000000+02:00</t>
+          <t>2003-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>2002-04-15T00:00:00.0000000+02:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -5547,22 +5539,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Uganda (various sites)</t>
+          <t>worldwide/closed/noContact</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SOROTI</t>
+          <t>KISORO</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1.68555555555556</v>
+        <v>-1.28361111111111</v>
       </c>
       <c r="E101" t="n">
-        <v>33.6163888888889</v>
+        <v>29.6919444444444</v>
       </c>
       <c r="F101" t="n">
-        <v>1038</v>
+        <v>1924</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5571,22 +5563,22 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1997-10-15T00:00:00.0000000+02:00</t>
+          <t>2001-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2010-04-15T00:00:00.0000000+02:00</t>
+          <t>2002-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>1997-10-15T00:00:00.0000000+02:00</t>
+          <t>2001-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>2010-04-15T00:00:00.0000000+02:00</t>
+          <t>2002-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -5598,22 +5590,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>worldwide/closed/noContact</t>
+          <t>Uganda (various sites)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>WOBULENZI</t>
+          <t>SOROTI</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.73</v>
+        <v>1.68555555555556</v>
       </c>
       <c r="E102" t="n">
-        <v>32.53</v>
+        <v>33.6163888888889</v>
       </c>
       <c r="F102" t="n">
-        <v>1150</v>
+        <v>1038</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5622,22 +5614,22 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1999-12-15T00:00:00.0000000+01:00</t>
+          <t>1997-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2000-07-15T00:00:00.0000000+02:00</t>
+          <t>2010-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>1999-12-15T00:00:00.0000000+01:00</t>
+          <t>1997-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>2000-07-15T00:00:00.0000000+02:00</t>
+          <t>2010-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -5649,22 +5641,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Nambia (Wilderness)</t>
+          <t>worldwide/closed/noContact</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>WILDERNESS</t>
+          <t>WOBULENZI</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-23.7230555555556</v>
+        <v>0.73</v>
       </c>
       <c r="E103" t="n">
-        <v>17.7988888888889</v>
+        <v>32.53</v>
       </c>
       <c r="F103" t="n">
-        <v>1260</v>
+        <v>1150</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5673,22 +5665,22 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2000-01-15T00:00:00.0000000+01:00</t>
+          <t>1999-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2000-03-15T00:00:00.0000000+01:00</t>
+          <t>2000-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>2000-01-15T00:00:00.0000000+01:00</t>
+          <t>1999-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>2000-03-15T00:00:00.0000000+01:00</t>
+          <t>2000-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -5700,22 +5692,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Cameroon (multiple sites)</t>
+          <t>Nambia (Wilderness)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DOUALA-HYDRAC</t>
+          <t>WILDERNESS</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>4.03666666666667</v>
+        <v>-23.7230555555556</v>
       </c>
       <c r="E104" t="n">
-        <v>9.73416666666667</v>
+        <v>17.7988888888889</v>
       </c>
       <c r="F104" t="n">
-        <v>18</v>
+        <v>1260</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5724,22 +5716,22 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2006-07-15T00:00:00.0000000+02:00</t>
+          <t>2000-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2021-11-15T00:00:00.0000000+01:00</t>
+          <t>2000-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>2006-07-15T00:00:00.0000000+02:00</t>
+          <t>2000-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>2021-11-15T00:00:00.0000000+01:00</t>
+          <t>2000-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -5751,22 +5743,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>South Africa (Cape Town)</t>
+          <t>Cameroon (multiple sites)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CAPE TOWN UNIVERSITY</t>
+          <t>DOUALA-HYDRAC</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-33.9583333333333</v>
+        <v>4.03666666666667</v>
       </c>
       <c r="E105" t="n">
-        <v>18.4611111111111</v>
+        <v>9.73416666666667</v>
       </c>
       <c r="F105" t="n">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5775,22 +5767,22 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>1995-06-15T00:00:00.0000000+02:00</t>
+          <t>2006-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2001-09-01T00:00:00.0000000+02:00</t>
+          <t>2021-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>1995-06-15T00:00:00.0000000+02:00</t>
+          <t>2006-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>2001-08-29T00:00:00.0000000+02:00</t>
+          <t>2021-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -5802,22 +5794,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Uganda (various sites)</t>
+          <t>South Africa (Cape Town)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>MASAKA</t>
+          <t>CAPE TOWN UNIVERSITY</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>-0.331666666666667</v>
+        <v>-33.9583333333333</v>
       </c>
       <c r="E106" t="n">
-        <v>31.7611111111111</v>
+        <v>18.4611111111111</v>
       </c>
       <c r="F106" t="n">
-        <v>1306</v>
+        <v>105</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5826,22 +5818,22 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2003-11-15T00:00:00.0000000+01:00</t>
+          <t>1995-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2001-09-01T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>2003-11-15T00:00:00.0000000+01:00</t>
+          <t>1995-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2001-08-29T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -5853,22 +5845,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>worldwide/closed/noContact</t>
+          <t>Uganda (various sites)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>TAMANRASSET</t>
+          <t>MASAKA</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>22.78</v>
+        <v>-0.331666666666667</v>
       </c>
       <c r="E107" t="n">
-        <v>5.52</v>
+        <v>31.7611111111111</v>
       </c>
       <c r="F107" t="n">
-        <v>1376</v>
+        <v>1306</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5877,22 +5869,22 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>1992-07-03T00:00:00.0000000+02:00</t>
+          <t>2003-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>1996-03-13T00:00:00.0000000+01:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>1992-07-03T00:00:00.0000000+02:00</t>
+          <t>2003-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>1996-03-13T00:00:00.0000000+01:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -5904,22 +5896,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Burkina Faso (Bobo-Dioulasso)</t>
+          <t>worldwide/closed/noContact</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HOUNDE</t>
+          <t>TAMANRASSET</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>11.4852777777778</v>
+        <v>22.78</v>
       </c>
       <c r="E108" t="n">
-        <v>-3.5225</v>
+        <v>5.52</v>
       </c>
       <c r="F108" t="n">
-        <v>330</v>
+        <v>1376</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5928,22 +5920,22 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2004-08-15T00:00:00.0000000+02:00</t>
+          <t>1992-07-03T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2005-10-15T00:00:00.0000000+02:00</t>
+          <t>1996-03-13T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>2004-08-15T00:00:00.0000000+02:00</t>
+          <t>1992-07-03T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>2005-10-15T00:00:00.0000000+02:00</t>
+          <t>1996-03-13T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -5960,17 +5952,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>NASSO</t>
+          <t>HOUNDE</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>11.19</v>
+        <v>11.4852777777778</v>
       </c>
       <c r="E109" t="n">
-        <v>-4.43333055555556</v>
+        <v>-3.5225</v>
       </c>
       <c r="F109" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5979,22 +5971,22 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2004-09-15T00:00:00.0000000+02:00</t>
+          <t>2004-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2005-08-15T00:00:00.0000000+02:00</t>
+          <t>2005-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>2004-09-15T00:00:00.0000000+02:00</t>
+          <t>2004-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>2005-08-15T00:00:00.0000000+02:00</t>
+          <t>2005-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -6006,22 +5998,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Burkina Faso (Ouagadougou)</t>
+          <t>Burkina Faso (Bobo-Dioulasso)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>OUAGADOUGOU</t>
+          <t>NASSO</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>12.3786111111111</v>
+        <v>11.19</v>
       </c>
       <c r="E110" t="n">
-        <v>-1.50311111111111</v>
+        <v>-4.43333055555556</v>
       </c>
       <c r="F110" t="n">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -6030,22 +6022,22 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2004-07-15T00:00:00.0000000+02:00</t>
+          <t>2004-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2019-10-15T00:00:00.0000000+02:00</t>
+          <t>2005-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>2004-07-15T00:00:00.0000000+02:00</t>
+          <t>2004-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>2019-10-15T00:00:00.0000000+02:00</t>
+          <t>2005-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -6057,22 +6049,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Benin (various sites)</t>
+          <t>Burkina Faso (Ouagadougou)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>COTONOU (IITA ABOMEY-CALAVI)</t>
+          <t>OUAGADOUGOU</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>6.41716944444445</v>
+        <v>12.3786111111111</v>
       </c>
       <c r="E111" t="n">
-        <v>2.32925555555556</v>
+        <v>-1.50311111111111</v>
       </c>
       <c r="F111" t="n">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -6081,22 +6073,22 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2009-08-15T00:00:00.0000000+02:00</t>
+          <t>2004-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2021-11-15T00:00:00.0000000+01:00</t>
+          <t>2019-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>2009-08-15T00:00:00.0000000+02:00</t>
+          <t>2004-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>2021-11-15T00:00:00.0000000+01:00</t>
+          <t>2019-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -6108,22 +6100,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Ascension Island</t>
+          <t>Benin (various sites)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>TRAVELLER'S HILL</t>
+          <t>COTONOU (IITA ABOMEY-CALAVI)</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-7.94444444444444</v>
+        <v>6.41716944444445</v>
       </c>
       <c r="E112" t="n">
-        <v>-14.3727777777778</v>
+        <v>2.32925555555556</v>
       </c>
       <c r="F112" t="n">
-        <v>400</v>
+        <v>14</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -6132,22 +6124,22 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2009-01-15T00:00:00.0000000+01:00</t>
+          <t>2009-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2021-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>2009-01-15T00:00:00.0000000+01:00</t>
+          <t>2009-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2021-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -6159,22 +6151,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Madagascar (Antananarivo)</t>
+          <t>Ascension Island</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ANTANANARIVO (ANKATSO)</t>
+          <t>TRAVELLER'S HILL</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-18.9147222222222</v>
+        <v>-7.94444444444444</v>
       </c>
       <c r="E113" t="n">
-        <v>47.5580555555556</v>
+        <v>-14.3727777777778</v>
       </c>
       <c r="F113" t="n">
-        <v>1295</v>
+        <v>400</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -6183,22 +6175,22 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2009-10-15T00:00:00.0000000+02:00</t>
+          <t>2009-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2022-12-15T00:00:00.0000000+01:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>2009-10-15T00:00:00.0000000+02:00</t>
+          <t>2009-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>2022-12-15T00:00:00.0000000+01:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -6210,22 +6202,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Mauritius (Vacoas)</t>
+          <t>Madagascar (Antananarivo)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>VACOAS</t>
+          <t>ANTANANARIVO (ANKATSO)</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-20.299175</v>
+        <v>-18.9147222222222</v>
       </c>
       <c r="E114" t="n">
-        <v>57.4787388888889</v>
+        <v>47.5580555555556</v>
       </c>
       <c r="F114" t="n">
-        <v>402</v>
+        <v>1295</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -6234,7 +6226,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2009-08-15T00:00:00.0000000+02:00</t>
+          <t>2009-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6244,7 +6236,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>2009-08-15T00:00:00.0000000+02:00</t>
+          <t>2009-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
@@ -6261,22 +6253,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Niger (Niamey)</t>
+          <t>Mauritius (Vacoas)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>NIAMEY (IRD-IRI)</t>
+          <t>VACOAS</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>13.52</v>
+        <v>-20.299175</v>
       </c>
       <c r="E115" t="n">
-        <v>2.09</v>
+        <v>57.4787388888889</v>
       </c>
       <c r="F115" t="n">
-        <v>220</v>
+        <v>402</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -6285,22 +6277,22 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2009-04-15T00:00:00.0000000+02:00</t>
+          <t>2009-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2020-10-15T00:00:00.0000000+02:00</t>
+          <t>2022-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>2009-04-15T00:00:00.0000000+02:00</t>
+          <t>2009-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>2020-10-15T00:00:00.0000000+02:00</t>
+          <t>2022-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -6312,22 +6304,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Central African Republic (Bangui area)</t>
+          <t>Niger (Niamey)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>BANGUI-SODECA</t>
+          <t>NIAMEY (IRD-IRI)</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>4.36569444444444</v>
+        <v>13.52</v>
       </c>
       <c r="E116" t="n">
-        <v>18.58725</v>
+        <v>2.09</v>
       </c>
       <c r="F116" t="n">
-        <v>386</v>
+        <v>220</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -6336,22 +6328,22 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2010-01-15T00:00:00.0000000+01:00</t>
+          <t>2009-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2020-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>2010-01-15T00:00:00.0000000+01:00</t>
+          <t>2009-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2020-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -6368,17 +6360,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BANGUI-UNIVERSITE</t>
+          <t>BANGUI-SODECA</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>4.37708333333333</v>
+        <v>4.36569444444444</v>
       </c>
       <c r="E117" t="n">
-        <v>18.5624722222222</v>
+        <v>18.58725</v>
       </c>
       <c r="F117" t="n">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -6387,7 +6379,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2009-09-15T00:00:00.0000000+02:00</t>
+          <t>2010-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6397,7 +6389,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>2009-09-15T00:00:00.0000000+02:00</t>
+          <t>2010-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -6414,22 +6406,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Burkina Faso (Bobo-Dioulasso)</t>
+          <t>Central African Republic (Bangui area)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>BOBO-DIOULASSO</t>
+          <t>BANGUI-UNIVERSITE</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>11.1769444444444</v>
+        <v>4.37708333333333</v>
       </c>
       <c r="E118" t="n">
-        <v>-4.30411111111111</v>
+        <v>18.5624722222222</v>
       </c>
       <c r="F118" t="n">
-        <v>450</v>
+        <v>363</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6438,22 +6430,22 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2012-05-15T00:00:00.0000000+02:00</t>
+          <t>2009-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2016-08-15T00:00:00.0000000+02:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>2012-05-15T00:00:00.0000000+02:00</t>
+          <t>2009-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>2016-08-15T00:00:00.0000000+02:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -6465,22 +6457,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Uganda (various sites)</t>
+          <t>Burkina Faso (Bobo-Dioulasso)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BUKASA ISLAND</t>
+          <t>BOBO-DIOULASSO</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-0.411</v>
+        <v>11.1769444444444</v>
       </c>
       <c r="E119" t="n">
-        <v>32.526</v>
+        <v>-4.30411111111111</v>
       </c>
       <c r="F119" t="n">
-        <v>1240</v>
+        <v>450</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6489,22 +6481,22 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2003-11-15T00:00:00.0000000+01:00</t>
+          <t>2012-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2007-01-15T00:00:00.0000000+01:00</t>
+          <t>2016-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>2003-11-15T00:00:00.0000000+01:00</t>
+          <t>2012-05-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>2007-01-15T00:00:00.0000000+01:00</t>
+          <t>2016-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -6516,22 +6508,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Mozambique (Gorongosa)</t>
+          <t>Uganda (various sites)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CHITENGO</t>
+          <t>BUKASA ISLAND</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-18.97515623</v>
+        <v>-0.411</v>
       </c>
       <c r="E120" t="n">
-        <v>34.34842465</v>
+        <v>32.526</v>
       </c>
       <c r="F120" t="n">
-        <v>34</v>
+        <v>1240</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6540,22 +6532,22 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2010-08-15T00:00:00.0000000+02:00</t>
+          <t>2003-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2011-03-15T00:00:00.0000000+01:00</t>
+          <t>2007-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>2010-08-15T00:00:00.0000000+02:00</t>
+          <t>2003-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>2011-03-15T00:00:00.0000000+01:00</t>
+          <t>2007-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -6572,17 +6564,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>GORONGOSA</t>
+          <t>CHITENGO</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-18.67178694</v>
+        <v>-18.97515623</v>
       </c>
       <c r="E121" t="n">
-        <v>34.07239317</v>
+        <v>34.34842465</v>
       </c>
       <c r="F121" t="n">
-        <v>346</v>
+        <v>34</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6591,22 +6583,22 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2010-09-15T00:00:00.0000000+02:00</t>
+          <t>2010-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2011-10-15T00:00:00.0000000+02:00</t>
+          <t>2011-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>2010-09-15T00:00:00.0000000+02:00</t>
+          <t>2010-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>2011-10-15T00:00:00.0000000+02:00</t>
+          <t>2011-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -6618,22 +6610,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Senegal (various sites)</t>
+          <t>Mozambique (Gorongosa)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DAKAR YOFF</t>
+          <t>GORONGOSA</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14.7333333333333</v>
+        <v>-18.67178694</v>
       </c>
       <c r="E122" t="n">
-        <v>-17.5</v>
+        <v>34.07239317</v>
       </c>
       <c r="F122" t="n">
-        <v>24</v>
+        <v>346</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6642,22 +6634,22 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2013-08-15T00:00:00.0000000+02:00</t>
+          <t>2010-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2016-10-15T00:00:00.0000000+02:00</t>
+          <t>2011-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>2013-08-15T00:00:00.0000000+02:00</t>
+          <t>2010-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>2016-10-15T00:00:00.0000000+02:00</t>
+          <t>2011-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -6674,17 +6666,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>LOUGA</t>
+          <t>DAKAR YOFF</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>15.6166666666667</v>
+        <v>14.7333333333333</v>
       </c>
       <c r="E123" t="n">
-        <v>-16.2166666666667</v>
+        <v>-17.5</v>
       </c>
       <c r="F123" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6693,22 +6685,22 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2013-06-15T00:00:00.0000000+02:00</t>
+          <t>2013-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2014-09-15T00:00:00.0000000+02:00</t>
+          <t>2016-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>2013-06-15T00:00:00.0000000+02:00</t>
+          <t>2013-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>2014-09-15T00:00:00.0000000+02:00</t>
+          <t>2016-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -6725,17 +6717,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>POUT</t>
+          <t>LOUGA</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>14.77</v>
+        <v>15.6166666666667</v>
       </c>
       <c r="E124" t="n">
-        <v>-17.0625</v>
+        <v>-16.2166666666667</v>
       </c>
       <c r="F124" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6744,22 +6736,22 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2013-07-15T00:00:00.0000000+02:00</t>
+          <t>2013-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2016-09-15T00:00:00.0000000+02:00</t>
+          <t>2014-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>2013-07-15T00:00:00.0000000+02:00</t>
+          <t>2013-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>2016-09-15T00:00:00.0000000+02:00</t>
+          <t>2014-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -6771,22 +6763,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Gabon (multiple sites)</t>
+          <t>Senegal (various sites)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>LIBREVILLE</t>
+          <t>POUT</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.31524</v>
+        <v>14.77</v>
       </c>
       <c r="E125" t="n">
-        <v>9.44157</v>
+        <v>-17.0625</v>
       </c>
       <c r="F125" t="n">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6795,22 +6787,22 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2015-01-15T00:00:00.0000000+01:00</t>
+          <t>2013-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2016-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>2015-01-15T00:00:00.0000000+01:00</t>
+          <t>2013-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2016-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -6822,22 +6814,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Uganda (various sites)</t>
+          <t>Gabon (multiple sites)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>BUGONDO</t>
+          <t>LIBREVILLE</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1.685556</v>
+        <v>0.31524</v>
       </c>
       <c r="E126" t="n">
-        <v>33.616389</v>
+        <v>9.44157</v>
       </c>
       <c r="F126" t="n">
-        <v>1038</v>
+        <v>69</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6846,22 +6838,22 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2011-03-15T00:00:00.0000000+01:00</t>
+          <t>2015-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2021-11-15T00:00:00.0000000+01:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>2011-03-15T00:00:00.0000000+01:00</t>
+          <t>2015-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>2021-11-15T00:00:00.0000000+01:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -6873,22 +6865,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Benin (various sites)</t>
+          <t>Uganda (various sites)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>BOHICON</t>
+          <t>BUGONDO</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>7.17</v>
+        <v>1.685556</v>
       </c>
       <c r="E127" t="n">
-        <v>2.07</v>
+        <v>33.616389</v>
       </c>
       <c r="F127" t="n">
-        <v>165</v>
+        <v>1038</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6897,22 +6889,22 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2014-03-15T00:00:00.0000000+01:00</t>
+          <t>2011-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2017-12-15T00:00:00.0000000+01:00</t>
+          <t>2021-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>2014-03-15T00:00:00.0000000+01:00</t>
+          <t>2011-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>2017-12-15T00:00:00.0000000+01:00</t>
+          <t>2021-11-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -6924,22 +6916,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DR Congo (Kisangani)</t>
+          <t>Benin (various sites)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>KISANGANI</t>
+          <t>BOHICON</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.512102778</v>
+        <v>7.17</v>
       </c>
       <c r="E128" t="n">
-        <v>25.20643889</v>
+        <v>2.07</v>
       </c>
       <c r="F128" t="n">
-        <v>418</v>
+        <v>165</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6948,22 +6940,22 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2015-01-15T00:00:00.0000000+01:00</t>
+          <t>2014-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2021-10-15T00:00:00.0000000+02:00</t>
+          <t>2017-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>2015-01-15T00:00:00.0000000+01:00</t>
+          <t>2014-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>2021-10-15T00:00:00.0000000+02:00</t>
+          <t>2017-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -6975,22 +6967,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Reunion (Grand-Ilet)</t>
+          <t>DR Congo (Kisangani)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>GRAND-ILET (REUNION)</t>
+          <t>KISANGANI</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-21.02823729</v>
+        <v>0.512102778</v>
       </c>
       <c r="E129" t="n">
-        <v>55.47161911</v>
+        <v>25.20643889</v>
       </c>
       <c r="F129" t="n">
-        <v>1184</v>
+        <v>418</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6999,22 +6991,22 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2010-10-03T11:30:00.0000000+02:00</t>
+          <t>2015-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2021-04-17T00:00:00.0000000+04:00</t>
+          <t>2021-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>2010-10-03T11:30:00.0000000+02:00</t>
+          <t>2015-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>2021-04-17T00:00:00.0000000+04:00</t>
+          <t>2021-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -7026,22 +7018,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Benin (various sites)</t>
+          <t>Reunion (Grand-Ilet)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>KANDI</t>
+          <t>GRAND-ILET (REUNION)</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>11.13</v>
+        <v>-21.02823729</v>
       </c>
       <c r="E130" t="n">
-        <v>2.93</v>
+        <v>55.47161911</v>
       </c>
       <c r="F130" t="n">
-        <v>290</v>
+        <v>1184</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -7050,22 +7042,22 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2014-04-15T00:00:00.0000000+02:00</t>
+          <t>2010-10-03T11:30:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2018-10-15T00:00:00.0000000+02:00</t>
+          <t>2021-04-17T00:00:00.0000000+04:00</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>2014-04-15T00:00:00.0000000+02:00</t>
+          <t>2010-10-03T11:30:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>2018-10-15T00:00:00.0000000+02:00</t>
+          <t>2021-04-17T00:00:00.0000000+04:00</t>
         </is>
       </c>
     </row>
@@ -7082,17 +7074,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>NATITINGOU</t>
+          <t>KANDI</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>10.3</v>
+        <v>11.13</v>
       </c>
       <c r="E131" t="n">
-        <v>1.38</v>
+        <v>2.93</v>
       </c>
       <c r="F131" t="n">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -7101,7 +7093,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2014-03-15T00:00:00.0000000+01:00</t>
+          <t>2014-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7111,7 +7103,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>2014-03-15T00:00:00.0000000+01:00</t>
+          <t>2014-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -7128,22 +7120,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DR Congo (Goma)</t>
+          <t>Benin (various sites)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>BWEREMANA</t>
+          <t>NATITINGOU</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-1.68421</v>
+        <v>10.3</v>
       </c>
       <c r="E132" t="n">
-        <v>29.01794</v>
+        <v>1.38</v>
       </c>
       <c r="F132" t="n">
-        <v>1470</v>
+        <v>440</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -7152,22 +7144,22 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2013-12-15T00:00:00.0000000+01:00</t>
+          <t>2014-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2015-10-15T00:00:00.0000000+02:00</t>
+          <t>2018-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>2013-12-15T00:00:00.0000000+01:00</t>
+          <t>2014-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>2015-10-15T00:00:00.0000000+02:00</t>
+          <t>2018-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -7184,17 +7176,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SAKE</t>
+          <t>BWEREMANA</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-1.56708</v>
+        <v>-1.68421</v>
       </c>
       <c r="E133" t="n">
-        <v>29.05573</v>
+        <v>29.01794</v>
       </c>
       <c r="F133" t="n">
-        <v>1514</v>
+        <v>1470</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -7235,17 +7227,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>KINGI</t>
+          <t>SAKE</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-1.48732</v>
+        <v>-1.56708</v>
       </c>
       <c r="E134" t="n">
-        <v>29.07066</v>
+        <v>29.05573</v>
       </c>
       <c r="F134" t="n">
-        <v>1848</v>
+        <v>1514</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -7254,7 +7246,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>2014-01-15T00:00:00.0000000+01:00</t>
+          <t>2013-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7264,7 +7256,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>2014-01-15T00:00:00.0000000+01:00</t>
+          <t>2013-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -7286,17 +7278,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>BUHIMBA</t>
+          <t>KINGI</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-1.63366</v>
+        <v>-1.48732</v>
       </c>
       <c r="E135" t="n">
-        <v>29.1506</v>
+        <v>29.07066</v>
       </c>
       <c r="F135" t="n">
-        <v>1468</v>
+        <v>1848</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -7305,7 +7297,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2013-12-15T00:00:00.0000000+01:00</t>
+          <t>2014-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7315,7 +7307,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>2013-12-15T00:00:00.0000000+01:00</t>
+          <t>2014-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -7337,17 +7329,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>KANYARUCHINYA</t>
+          <t>BUHIMBA</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-1.61374</v>
+        <v>-1.63366</v>
       </c>
       <c r="E136" t="n">
-        <v>29.25533</v>
+        <v>29.1506</v>
       </c>
       <c r="F136" t="n">
-        <v>1759</v>
+        <v>1468</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -7388,17 +7380,17 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>KIBATI</t>
+          <t>KANYARUCHINYA</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-1.56909</v>
+        <v>-1.61374</v>
       </c>
       <c r="E137" t="n">
-        <v>29.27818</v>
+        <v>29.25533</v>
       </c>
       <c r="F137" t="n">
-        <v>1994</v>
+        <v>1759</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -7439,17 +7431,17 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>REST 1</t>
+          <t>KIBATI</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-1.55085</v>
+        <v>-1.56909</v>
       </c>
       <c r="E138" t="n">
-        <v>29.26785</v>
+        <v>29.27818</v>
       </c>
       <c r="F138" t="n">
-        <v>2254</v>
+        <v>1994</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -7490,17 +7482,17 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>REST 2</t>
+          <t>REST 1</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-1.54475</v>
+        <v>-1.55085</v>
       </c>
       <c r="E139" t="n">
-        <v>29.26068</v>
+        <v>29.26785</v>
       </c>
       <c r="F139" t="n">
-        <v>2535</v>
+        <v>2254</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -7541,17 +7533,17 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SHAHERU</t>
+          <t>REST 2</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-1.54018</v>
+        <v>-1.54475</v>
       </c>
       <c r="E140" t="n">
-        <v>29.25452</v>
+        <v>29.26068</v>
       </c>
       <c r="F140" t="n">
-        <v>2761</v>
+        <v>2535</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7592,17 +7584,17 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>BIRARO</t>
+          <t>SHAHERU</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-1.53553</v>
+        <v>-1.54018</v>
       </c>
       <c r="E141" t="n">
-        <v>29.25374</v>
+        <v>29.25452</v>
       </c>
       <c r="F141" t="n">
-        <v>2918</v>
+        <v>2761</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7643,17 +7635,17 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CABANES</t>
+          <t>BIRARO</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-1.53085</v>
+        <v>-1.53553</v>
       </c>
       <c r="E142" t="n">
-        <v>29.25038</v>
+        <v>29.25374</v>
       </c>
       <c r="F142" t="n">
-        <v>3230</v>
+        <v>2918</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7694,17 +7686,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SUMMIT</t>
+          <t>CABANES</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-1.52603</v>
+        <v>-1.53085</v>
       </c>
       <c r="E143" t="n">
-        <v>29.24557</v>
+        <v>29.25038</v>
       </c>
       <c r="F143" t="n">
-        <v>3460</v>
+        <v>3230</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7745,17 +7737,17 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>GOMA</t>
+          <t>SUMMIT</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-1.68218</v>
+        <v>-1.52603</v>
       </c>
       <c r="E144" t="n">
-        <v>29.22716</v>
+        <v>29.24557</v>
       </c>
       <c r="F144" t="n">
-        <v>1535</v>
+        <v>3460</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7769,7 +7761,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2021-10-15T00:00:00.0000000+02:00</t>
+          <t>2015-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7779,7 +7771,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>2021-10-15T00:00:00.0000000+02:00</t>
+          <t>2015-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -7791,22 +7783,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Togo (North)</t>
+          <t>DR Congo (Goma)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MANGO</t>
+          <t>GOMA</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>10.36512</v>
+        <v>-1.68218</v>
       </c>
       <c r="E145" t="n">
-        <v>0.46944</v>
+        <v>29.22716</v>
       </c>
       <c r="F145" t="n">
-        <v>168</v>
+        <v>1535</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7815,22 +7807,22 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>2016-03-08T22:09:30.0000000+01:00</t>
+          <t>2013-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2019-10-20T12:00:00.0000000+02:00</t>
+          <t>2021-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>2016-03-08T22:09:30.0000000+01:00</t>
+          <t>2013-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>2019-10-20T12:00:00.0000000+02:00</t>
+          <t>2021-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -7847,17 +7839,17 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DAPAONG</t>
+          <t>MANGO</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>10.86</v>
+        <v>10.36512</v>
       </c>
       <c r="E146" t="n">
-        <v>0.2</v>
+        <v>0.46944</v>
       </c>
       <c r="F146" t="n">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7866,22 +7858,22 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2015-04-26T12:00:00.0000000+02:00</t>
+          <t>2016-03-08T22:09:30.0000000+01:00</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2019-09-23T00:00:00.0000000+02:00</t>
+          <t>2019-10-20T12:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>2015-04-26T12:00:00.0000000+02:00</t>
+          <t>2016-03-08T22:09:30.0000000+01:00</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>2019-09-23T00:00:00.0000000+02:00</t>
+          <t>2019-10-20T12:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -7893,22 +7885,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Eritrea (Asmara)</t>
+          <t>Togo (North)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ASMARA</t>
+          <t>DAPAONG</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>15.33401667</v>
+        <v>10.86</v>
       </c>
       <c r="E147" t="n">
-        <v>38.92861667</v>
+        <v>0.2</v>
       </c>
       <c r="F147" t="n">
-        <v>2345</v>
+        <v>315</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7917,22 +7909,22 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2014-07-15T00:00:00.0000000+02:00</t>
+          <t>2015-04-26T12:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2021-09-15T00:00:00.0000000+02:00</t>
+          <t>2019-09-23T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>2014-07-15T00:00:00.0000000+02:00</t>
+          <t>2015-04-26T12:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>2021-09-15T00:00:00.0000000+02:00</t>
+          <t>2019-09-23T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -7944,22 +7936,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Mali (various sites)</t>
+          <t>Eritrea (Asmara)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SEVARE</t>
+          <t>ASMARA</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>14.53</v>
+        <v>15.33401667</v>
       </c>
       <c r="E148" t="n">
-        <v>-4.1</v>
+        <v>38.92861667</v>
       </c>
       <c r="F148" t="n">
-        <v>270</v>
+        <v>2345</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7968,22 +7960,22 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2014-06-15T00:00:00.0000000+02:00</t>
+          <t>2014-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2018-08-15T00:00:00.0000000+02:00</t>
+          <t>2021-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>2014-06-15T00:00:00.0000000+02:00</t>
+          <t>2014-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>2018-08-15T00:00:00.0000000+02:00</t>
+          <t>2021-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -8000,17 +7992,17 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>KOUTIALA</t>
+          <t>SEVARE</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>12.38</v>
+        <v>14.53</v>
       </c>
       <c r="E149" t="n">
-        <v>-5.47</v>
+        <v>-4.1</v>
       </c>
       <c r="F149" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -8019,22 +8011,22 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>2014-08-15T00:00:00.0000000+02:00</t>
+          <t>2014-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2015-09-15T00:00:00.0000000+02:00</t>
+          <t>2018-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>2014-08-15T00:00:00.0000000+02:00</t>
+          <t>2014-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>2015-09-15T00:00:00.0000000+02:00</t>
+          <t>2018-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -8051,17 +8043,17 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>BANKASS</t>
+          <t>KOUTIALA</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>14.08</v>
+        <v>12.38</v>
       </c>
       <c r="E150" t="n">
-        <v>-3.52</v>
+        <v>-5.47</v>
       </c>
       <c r="F150" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -8070,22 +8062,22 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2014-07-15T00:00:00.0000000+02:00</t>
+          <t>2014-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2018-09-15T00:00:00.0000000+02:00</t>
+          <t>2015-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>2014-07-15T00:00:00.0000000+02:00</t>
+          <t>2014-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>2018-09-15T00:00:00.0000000+02:00</t>
+          <t>2015-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -8097,22 +8089,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cameroon (multiple sites)</t>
+          <t>Mali (various sites)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>YAOUNDE</t>
+          <t>BANKASS</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>3.8631031</v>
+        <v>14.08</v>
       </c>
       <c r="E151" t="n">
-        <v>11.4554616</v>
+        <v>-3.52</v>
       </c>
       <c r="F151" t="n">
-        <v>736</v>
+        <v>300</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -8121,22 +8113,22 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2020-03-15T00:00:00.0000000+01:00</t>
+          <t>2014-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2018-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>2020-03-15T00:00:00.0000000+01:00</t>
+          <t>2014-07-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2018-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -8148,22 +8140,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Cameroon (Maroua)</t>
+          <t>Cameroon (multiple sites)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MAROUA</t>
+          <t>YAOUNDE</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>10.586583</v>
+        <v>3.8631031</v>
       </c>
       <c r="E152" t="n">
-        <v>14.32375</v>
+        <v>11.4554616</v>
       </c>
       <c r="F152" t="n">
-        <v>396</v>
+        <v>736</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -8177,7 +8169,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2021-10-15T00:00:00.0000000+02:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8187,7 +8179,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>2021-10-15T00:00:00.0000000+02:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -8199,22 +8191,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Angola (multiple sites)</t>
+          <t>Cameroon (Maroua)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SUMBE</t>
+          <t>MAROUA</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-11.21805556</v>
+        <v>10.586583</v>
       </c>
       <c r="E153" t="n">
-        <v>13.84972222</v>
+        <v>14.32375</v>
       </c>
       <c r="F153" t="n">
-        <v>40</v>
+        <v>396</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -8223,22 +8215,22 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2021-03-15T00:00:00.0000000+01:00</t>
+          <t>2020-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2021-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>2021-03-15T00:00:00.0000000+01:00</t>
+          <t>2020-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+01:00</t>
+          <t>2021-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -8255,17 +8247,17 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>NDALATANDU</t>
+          <t>SUMBE</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-9.293888889</v>
+        <v>-11.21805556</v>
       </c>
       <c r="E154" t="n">
-        <v>14.92027778</v>
+        <v>13.84972222</v>
       </c>
       <c r="F154" t="n">
-        <v>800</v>
+        <v>40</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -8306,17 +8298,17 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>LUANDA</t>
+          <t>NDALATANDU</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-8.838329999999999</v>
+        <v>-9.293888889</v>
       </c>
       <c r="E155" t="n">
-        <v>13.23444</v>
+        <v>14.92027778</v>
       </c>
       <c r="F155" t="n">
-        <v>6</v>
+        <v>800</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -8325,7 +8317,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2020-01-15T00:00:00.0000000+01:00</t>
+          <t>2021-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8335,7 +8327,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>2020-01-15T00:00:00.0000000+01:00</t>
+          <t>2021-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -8357,17 +8349,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>LUANDA-P</t>
+          <t>LUANDA</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-8.811944444</v>
+        <v>-8.838329999999999</v>
       </c>
       <c r="E156" t="n">
-        <v>13.22722222</v>
+        <v>13.23444</v>
       </c>
       <c r="F156" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -8376,7 +8368,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2021-03-15T00:00:00.0000000+01:00</t>
+          <t>2020-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8386,7 +8378,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>2021-03-15T00:00:00.0000000+01:00</t>
+          <t>2020-01-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -8403,22 +8395,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Sudan (Khartoum)</t>
+          <t>Angola (multiple sites)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>KHARTOUM (SAEC)</t>
+          <t>LUANDA-P</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>15.611</v>
+        <v>-8.811944444</v>
       </c>
       <c r="E157" t="n">
-        <v>32.549</v>
+        <v>13.22722222</v>
       </c>
       <c r="F157" t="n">
-        <v>382</v>
+        <v>10</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -8427,22 +8419,22 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>2021-08-15T00:00:00.0000000+02:00</t>
+          <t>2021-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2021-09-15T00:00:00.0000000+02:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>2021-08-15T00:00:00.0000000+02:00</t>
+          <t>2021-03-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>2021-09-15T00:00:00.0000000+02:00</t>
+          <t>2021-12-15T00:00:00.0000000+01:00</t>
         </is>
       </c>
     </row>
@@ -8454,22 +8446,22 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Chad (N'Djamena)</t>
+          <t>Sudan (Khartoum)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>MONGO</t>
+          <t>KHARTOUM (SAEC)</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>12.18</v>
+        <v>15.611</v>
       </c>
       <c r="E158" t="n">
-        <v>18.69</v>
+        <v>32.549</v>
       </c>
       <c r="F158" t="n">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -8478,22 +8470,22 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2019-04-15T00:00:00.0000000+02:00</t>
+          <t>2021-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2021-10-15T00:00:00.0000000+02:00</t>
+          <t>2021-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>2019-04-15T00:00:00.0000000+02:00</t>
+          <t>2021-08-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2021-10-15T00:00:00.0000000+02:00</t>
+          <t>2021-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -8510,17 +8502,17 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SARH</t>
+          <t>MONGO</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>9.15</v>
+        <v>12.18</v>
       </c>
       <c r="E159" t="n">
-        <v>18.383333</v>
+        <v>18.69</v>
       </c>
       <c r="F159" t="n">
-        <v>347</v>
+        <v>430</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -8529,7 +8521,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2019-06-15T00:00:00.0000000+02:00</t>
+          <t>2019-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8539,7 +8531,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>2019-06-15T00:00:00.0000000+02:00</t>
+          <t>2019-04-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -8561,17 +8553,17 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ABECKE</t>
+          <t>SARH</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>13.82</v>
+        <v>9.15</v>
       </c>
       <c r="E160" t="n">
-        <v>20.84</v>
+        <v>18.383333</v>
       </c>
       <c r="F160" t="n">
-        <v>550</v>
+        <v>347</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8580,22 +8572,22 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2021-09-15T00:00:00.0000000+02:00</t>
+          <t>2019-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2021-09-15T00:00:00.0000000+02:00</t>
+          <t>2021-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>2021-09-15T00:00:00.0000000+02:00</t>
+          <t>2019-06-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2021-09-15T00:00:00.0000000+02:00</t>
+          <t>2021-10-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -8607,22 +8599,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Cotonou</t>
+          <t>Chad (N'Djamena)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>COTONOU (IITA) (O17)</t>
+          <t>ABECKE</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>6.41716944444445</v>
+        <v>13.82</v>
       </c>
       <c r="E161" t="n">
-        <v>2.32925555555556</v>
+        <v>20.84</v>
       </c>
       <c r="F161" t="n">
-        <v>14</v>
+        <v>550</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8631,22 +8623,22 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>2015-02-15T00:00:00.0000000+00:00</t>
+          <t>2021-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2018-11-15T00:00:00.0000000+00:00</t>
+          <t>2021-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>2015-02-15T00:00:00.0000000+00:00</t>
+          <t>2021-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>2018-11-15T00:00:00.0000000+00:00</t>
+          <t>2021-09-15T00:00:00.0000000+02:00</t>
         </is>
       </c>
     </row>
@@ -8658,22 +8650,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ouagadougou</t>
+          <t>Cotonou</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>OUAGADOUGOU (O17)</t>
+          <t>COTONOU (IITA) (O17)</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>12.3786111111111</v>
+        <v>6.41716944444445</v>
       </c>
       <c r="E162" t="n">
-        <v>-1.50311111111111</v>
+        <v>2.32925555555556</v>
       </c>
       <c r="F162" t="n">
-        <v>298</v>
+        <v>14</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8682,22 +8674,22 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2016-05-15T00:00:00.0000000+00:00</t>
+          <t>2015-02-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2018-10-15T00:00:00.0000000+00:00</t>
+          <t>2018-11-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>2016-05-15T00:00:00.0000000+00:00</t>
+          <t>2015-02-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>2018-10-15T00:00:00.0000000+00:00</t>
+          <t>2018-11-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
     </row>
@@ -8709,22 +8701,22 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Kisangani</t>
+          <t>Ouagadougou</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>KISANGANI (O17)</t>
+          <t>OUAGADOUGOU (O17)</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.512102778</v>
+        <v>12.3786111111111</v>
       </c>
       <c r="E163" t="n">
-        <v>25.20643889</v>
+        <v>-1.50311111111111</v>
       </c>
       <c r="F163" t="n">
-        <v>418</v>
+        <v>298</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -8733,22 +8725,22 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2015-01-15T00:00:00.0000000+00:00</t>
+          <t>2016-05-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2018-12-15T00:00:00.0000000+00:00</t>
+          <t>2018-10-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>2015-01-15T00:00:00.0000000+00:00</t>
+          <t>2016-05-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>2018-12-15T00:00:00.0000000+00:00</t>
+          <t>2018-10-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
     </row>
@@ -8760,22 +8752,22 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Goma</t>
+          <t>Kisangani</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>GOMA (O17)</t>
+          <t>KISANGANI (O17)</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-1.68218</v>
+        <v>0.512102778</v>
       </c>
       <c r="E164" t="n">
-        <v>29.22716</v>
+        <v>25.20643889</v>
       </c>
       <c r="F164" t="n">
-        <v>1535</v>
+        <v>418</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -8784,7 +8776,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2016-10-15T00:00:00.0000000+00:00</t>
+          <t>2015-01-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -8794,7 +8786,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>2016-10-15T00:00:00.0000000+00:00</t>
+          <t>2015-01-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -8811,22 +8803,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Bangui Univ.</t>
+          <t>Goma</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>BANGUI-UNIVERSITE (O17)</t>
+          <t>GOMA (O17)</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>4.37708333333333</v>
+        <v>-1.68218</v>
       </c>
       <c r="E165" t="n">
-        <v>18.5624722222222</v>
+        <v>29.22716</v>
       </c>
       <c r="F165" t="n">
-        <v>363</v>
+        <v>1535</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8835,22 +8827,22 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>2015-01-15T00:00:00.0000000+00:00</t>
+          <t>2016-10-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2018-11-15T00:00:00.0000000+00:00</t>
+          <t>2018-12-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>2015-01-15T00:00:00.0000000+00:00</t>
+          <t>2016-10-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>2018-11-15T00:00:00.0000000+00:00</t>
+          <t>2018-12-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
     </row>
@@ -8862,22 +8854,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Douala</t>
+          <t>Bangui Univ.</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DOUALA (O17)</t>
+          <t>BANGUI-UNIVERSITE (O17)</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>4.03666666666667</v>
+        <v>4.37708333333333</v>
       </c>
       <c r="E166" t="n">
-        <v>9.73416666666667</v>
+        <v>18.5624722222222</v>
       </c>
       <c r="F166" t="n">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8886,7 +8878,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2015-02-15T00:00:00.0000000+00:00</t>
+          <t>2015-01-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -8896,7 +8888,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>2015-02-15T00:00:00.0000000+00:00</t>
+          <t>2015-01-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -8913,22 +8905,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Asmara</t>
+          <t>Douala</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ASMARA (O17)</t>
+          <t>DOUALA (O17)</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>15.33401667</v>
+        <v>4.03666666666667</v>
       </c>
       <c r="E167" t="n">
-        <v>38.92861667</v>
+        <v>9.73416666666667</v>
       </c>
       <c r="F167" t="n">
-        <v>2345</v>
+        <v>18</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8937,22 +8929,22 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>2015-07-15T00:00:00.0000000+00:00</t>
+          <t>2015-02-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2018-08-15T00:00:00.0000000+00:00</t>
+          <t>2018-11-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>2015-07-15T00:00:00.0000000+00:00</t>
+          <t>2015-02-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>2018-08-15T00:00:00.0000000+00:00</t>
+          <t>2018-11-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
     </row>
@@ -8964,22 +8956,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Addis Ababa</t>
+          <t>Asmara</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ADDIS ABABA (O17)</t>
+          <t>ASMARA (O17)</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>9</v>
+        <v>15.33401667</v>
       </c>
       <c r="E168" t="n">
-        <v>38.73</v>
+        <v>38.92861667</v>
       </c>
       <c r="F168" t="n">
-        <v>2360</v>
+        <v>2345</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8988,22 +8980,22 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>2015-03-15T00:00:00.0000000+00:00</t>
+          <t>2015-07-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2018-10-15T00:00:00.0000000+00:00</t>
+          <t>2018-08-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>2015-03-15T00:00:00.0000000+00:00</t>
+          <t>2015-07-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2018-10-15T00:00:00.0000000+00:00</t>
+          <t>2018-08-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
     </row>
@@ -9015,22 +9007,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Libreville</t>
+          <t>Addis Ababa</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>LIBREVILLE (O17)</t>
+          <t>ADDIS ABABA (O17)</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.31524</v>
+        <v>9</v>
       </c>
       <c r="E169" t="n">
-        <v>9.44157</v>
+        <v>38.73</v>
       </c>
       <c r="F169" t="n">
-        <v>69</v>
+        <v>2360</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -9039,22 +9031,22 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>2015-01-15T00:00:00.0000000+00:00</t>
+          <t>2015-03-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2018-12-15T00:00:00.0000000+00:00</t>
+          <t>2018-10-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>2015-01-15T00:00:00.0000000+00:00</t>
+          <t>2015-03-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>2018-12-15T00:00:00.0000000+00:00</t>
+          <t>2018-10-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
     </row>
@@ -9066,22 +9058,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Fes Saïss</t>
+          <t>Libreville</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>FES SAISS (O17)</t>
+          <t>LIBREVILLE (O17)</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>33.9666666666667</v>
+        <v>0.31524</v>
       </c>
       <c r="E170" t="n">
-        <v>-4.98333333333333</v>
+        <v>9.44157</v>
       </c>
       <c r="F170" t="n">
-        <v>571</v>
+        <v>69</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -9090,7 +9082,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2015-02-15T00:00:00.0000000+00:00</t>
+          <t>2015-01-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9100,7 +9092,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>2015-02-15T00:00:00.0000000+00:00</t>
+          <t>2015-01-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -9117,22 +9109,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Antananarivo</t>
+          <t>Fes Saïss</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ANTANANARIVO (O17)</t>
+          <t>FES SAISS (O17)</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>-18.9</v>
+        <v>33.9666666666667</v>
       </c>
       <c r="E171" t="n">
-        <v>47.53</v>
+        <v>-4.98333333333333</v>
       </c>
       <c r="F171" t="n">
-        <v>1300</v>
+        <v>571</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -9141,7 +9133,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2015-01-15T00:00:00.0000000+00:00</t>
+          <t>2015-02-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -9151,7 +9143,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>2015-01-15T00:00:00.0000000+00:00</t>
+          <t>2015-02-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -9168,22 +9160,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Bamako</t>
+          <t>Antananarivo</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>BAMAKO (O17)</t>
+          <t>ANTANANARIVO (O17)</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>12.69325</v>
+        <v>-18.9</v>
       </c>
       <c r="E172" t="n">
-        <v>-7.99549444444444</v>
+        <v>47.53</v>
       </c>
       <c r="F172" t="n">
-        <v>381</v>
+        <v>1300</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -9192,22 +9184,22 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>2015-06-15T00:00:00.0000000+00:00</t>
+          <t>2015-01-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2018-09-15T00:00:00.0000000+00:00</t>
+          <t>2018-12-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>2015-06-15T00:00:00.0000000+00:00</t>
+          <t>2015-01-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>2018-09-15T00:00:00.0000000+00:00</t>
+          <t>2018-12-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
     </row>
@@ -9219,22 +9211,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Gorongosa</t>
+          <t>Bamako</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>GORONGOSA (O17)</t>
+          <t>BAMAKO (O17)</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-18.679</v>
+        <v>12.69325</v>
       </c>
       <c r="E173" t="n">
-        <v>34.071</v>
+        <v>-7.99549444444444</v>
       </c>
       <c r="F173" t="n">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -9243,22 +9235,22 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2015-02-15T00:00:00.0000000+00:00</t>
+          <t>2015-06-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2018-12-15T00:00:00.0000000+00:00</t>
+          <t>2018-09-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>2015-02-15T00:00:00.0000000+00:00</t>
+          <t>2015-06-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>2018-12-15T00:00:00.0000000+00:00</t>
+          <t>2018-09-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
     </row>
@@ -9270,22 +9262,22 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Niamey</t>
+          <t>Gorongosa</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>NIAMEY (IRD-IRI) (O17)</t>
+          <t>GORONGOSA (O17)</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>13.52</v>
+        <v>-18.679</v>
       </c>
       <c r="E174" t="n">
-        <v>2.09</v>
+        <v>34.071</v>
       </c>
       <c r="F174" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -9294,22 +9286,22 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2015-06-15T00:00:00.0000000+00:00</t>
+          <t>2015-02-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2018-10-15T00:00:00.0000000+00:00</t>
+          <t>2018-12-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>2015-06-15T00:00:00.0000000+00:00</t>
+          <t>2015-02-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>2018-10-15T00:00:00.0000000+00:00</t>
+          <t>2018-12-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
     </row>
@@ -9321,22 +9313,22 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Réunion</t>
+          <t>Niamey</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>REUNION (O17)</t>
+          <t>NIAMEY (IRD-IRI) (O17)</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-20.901</v>
+        <v>13.52</v>
       </c>
       <c r="E175" t="n">
-        <v>55.484</v>
+        <v>2.09</v>
       </c>
       <c r="F175" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -9345,22 +9337,22 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>2015-01-15T00:00:00.0000000+00:00</t>
+          <t>2015-06-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2018-01-15T00:00:00.0000000+00:00</t>
+          <t>2018-10-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>2015-01-15T00:00:00.0000000+00:00</t>
+          <t>2015-06-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>2018-01-15T00:00:00.0000000+00:00</t>
+          <t>2018-10-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
     </row>
@@ -9372,22 +9364,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ascension</t>
+          <t>Réunion</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ASCENSION IS. (O17)</t>
+          <t>REUNION (O17)</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>-7.92</v>
+        <v>-20.901</v>
       </c>
       <c r="E176" t="n">
-        <v>-14.42</v>
+        <v>55.484</v>
       </c>
       <c r="F176" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -9401,7 +9393,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+00:00</t>
+          <t>2018-01-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9411,7 +9403,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>2021-12-15T00:00:00.0000000+00:00</t>
+          <t>2018-01-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
     </row>
@@ -9423,22 +9415,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Travellers Hill</t>
+          <t>Ascension</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>TRAVELLER'S HILL (O17)</t>
+          <t>ASCENSION IS. (O17)</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-7.94444444444444</v>
+        <v>-7.92</v>
       </c>
       <c r="E177" t="n">
-        <v>-14.3727777777778</v>
+        <v>-14.42</v>
       </c>
       <c r="F177" t="n">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -9474,22 +9466,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>N'Djamena</t>
+          <t>Travellers Hill</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>N'DJAMENA (O17)</t>
+          <t>TRAVELLER'S HILL (O17)</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>12.13</v>
+        <v>-7.94444444444444</v>
       </c>
       <c r="E178" t="n">
-        <v>15.03</v>
+        <v>-14.3727777777778</v>
       </c>
       <c r="F178" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -9498,22 +9490,22 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>2015-06-15T00:00:00.0000000+00:00</t>
+          <t>2015-01-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2018-11-15T00:00:00.0000000+00:00</t>
+          <t>2021-12-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>2015-06-15T00:00:00.0000000+00:00</t>
+          <t>2015-01-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>2018-11-15T00:00:00.0000000+00:00</t>
+          <t>2021-12-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
     </row>
@@ -9525,22 +9517,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Entebbe</t>
+          <t>N'Djamena</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ENTEBBE (O17)</t>
+          <t>N'DJAMENA (O17)</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.05</v>
+        <v>12.13</v>
       </c>
       <c r="E179" t="n">
-        <v>32.45</v>
+        <v>15.03</v>
       </c>
       <c r="F179" t="n">
-        <v>1155</v>
+        <v>300</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -9549,22 +9541,22 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>2015-02-15T00:00:00.0000000+00:00</t>
+          <t>2015-06-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2018-12-15T00:00:00.0000000+00:00</t>
+          <t>2018-11-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>2015-02-15T00:00:00.0000000+00:00</t>
+          <t>2015-06-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>2018-12-15T00:00:00.0000000+00:00</t>
+          <t>2018-11-15T00:00:00.0000000+00:00</t>
         </is>
       </c>
     </row>
@@ -9576,44 +9568,95 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
+          <t>Entebbe</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>ENTEBBE (O17)</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E180" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1155</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>2015-02-15T00:00:00.0000000+00:00</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>2018-12-15T00:00:00.0000000+00:00</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>2015-02-15T00:00:00.0000000+00:00</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>2018-12-15T00:00:00.0000000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Africa</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
           <t>Mbandaka</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>Mbandaka</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D181" t="n">
         <v>0.06548183493589731</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E181" t="n">
         <v>18.3128281468995</v>
       </c>
-      <c r="F180" t="n">
+      <c r="F181" t="n">
         <v>315</v>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>H2</t>
-        </is>
-      </c>
-      <c r="H180" t="inlineStr">
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
         <is>
           <t>2020-02-24T00:00:00.0000000+01:00</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr">
+      <c r="I181" t="inlineStr">
         <is>
           <t>2021-12-06T00:00:00.0000000+01:00</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr">
+      <c r="J181" t="inlineStr">
         <is>
           <t>2020-02-24T00:00:00.0000000+01:00</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr">
+      <c r="K181" t="inlineStr">
         <is>
           <t>2021-12-06T00:00:00.0000000+01:00</t>
         </is>
